--- a/Factures_Excel/1731 - Les Toitures C.B.C. Inc..xlsx
+++ b/Factures_Excel/1731 - Les Toitures C.B.C. Inc..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A02EC4-7DA3-44F4-9393-1A50FD25C290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D6716-DE5F-400D-B7E1-74C31F0E243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-02-24" sheetId="4" r:id="rId1"/>
@@ -21,9 +21,10 @@
     <sheet name="Activités" sheetId="5" r:id="rId6"/>
     <sheet name="2024-09-07 - 24-24497" sheetId="10" r:id="rId7"/>
     <sheet name="2024-11-16 - 24-24630" sheetId="11" r:id="rId8"/>
+    <sheet name="2025-03-01 - 25-24755" sheetId="12" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -38,6 +39,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'17-06-24'!$A$1:$F$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'19-02-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2024-11-16 - 24-24630'!$A$1:$F$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'2025-03-01 - 25-24755'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'26-05-24'!$A$1:$F$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'28-07-24'!$A$1:$F$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Activités!$A$1:$D$48</definedName>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="131">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -429,6 +431,30 @@
   </si>
   <si>
     <t xml:space="preserve"> - Validation de la conformité des chèques/virements effectués en concordance avec nos directives;</t>
+  </si>
+  <si>
+    <t>Le 1 MARS 2025</t>
+  </si>
+  <si>
+    <t>Katie Pimparé</t>
+  </si>
+  <si>
+    <t>25-24755</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Fournir les directives de comptabilisation à Katie pour les dividendes et rachats d'actions survenus ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation d'un sommaire salaires vs dividendes ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Répondre aux diverses demandes de votre comptable afférentes à la présente réorganisation, la comptabilité et leurs impacts;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus des diverses entités;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous et votre comptable;</t>
   </si>
 </sst>
 </file>
@@ -1322,6 +1348,94 @@
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="48" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1334,27 +1448,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1394,88 +1493,15 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="47" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="12" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="7" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="49" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="48" fillId="3" borderId="15" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1951,6 +1977,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8193" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E31213F-C6C6-4516-4EED-D82E4383DCD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2718,14 +2810,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2746,283 +2838,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="140"/>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
+      <c r="B34" s="163"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="140" t="s">
+      <c r="B35" s="163" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="140"/>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
+      <c r="B36" s="163"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="140" t="s">
+      <c r="B37" s="163" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="140"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
+      <c r="B38" s="163"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="140" t="s">
+      <c r="B39" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="140" t="s">
+      <c r="B41" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="140"/>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="140" t="s">
+      <c r="B43" s="163" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="140" t="s">
+      <c r="B45" s="163" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="140" t="s">
+      <c r="B47" s="163" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="140" t="s">
+      <c r="B49" s="163" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="140" t="s">
+      <c r="B51" s="163" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="140" t="s">
+      <c r="B53" s="163" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="140" t="s">
+      <c r="B55" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="140" t="s">
+      <c r="B57" s="163" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="140" t="s">
+      <c r="B59" s="163" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3052,17 +3144,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="140"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
+      <c r="B68" s="163"/>
+      <c r="C68" s="163"/>
+      <c r="D68" s="163"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3169,19 +3261,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="144"/>
-      <c r="C77" s="144"/>
-      <c r="D77" s="144"/>
+      <c r="B77" s="165"/>
+      <c r="C77" s="165"/>
+      <c r="D77" s="165"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="141" t="s">
+      <c r="B78" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
+      <c r="C78" s="170"/>
+      <c r="D78" s="170"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3189,9 +3281,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="144"/>
-      <c r="C79" s="144"/>
-      <c r="D79" s="144"/>
+      <c r="B79" s="165"/>
+      <c r="C79" s="165"/>
+      <c r="D79" s="165"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3226,31 +3318,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="138"/>
-      <c r="C83" s="138"/>
-      <c r="D83" s="138"/>
-      <c r="E83" s="138"/>
+      <c r="B83" s="168"/>
+      <c r="C83" s="168"/>
+      <c r="D83" s="168"/>
+      <c r="E83" s="168"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="146" t="s">
+      <c r="A84" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="146"/>
-      <c r="C84" s="146"/>
-      <c r="D84" s="146"/>
-      <c r="E84" s="146"/>
-      <c r="F84" s="146"/>
+      <c r="B84" s="162"/>
+      <c r="C84" s="162"/>
+      <c r="D84" s="162"/>
+      <c r="E84" s="162"/>
+      <c r="F84" s="162"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="142" t="s">
+      <c r="A85" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="142"/>
-      <c r="C85" s="142"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="142"/>
+      <c r="B85" s="171"/>
+      <c r="C85" s="171"/>
+      <c r="D85" s="171"/>
+      <c r="E85" s="171"/>
+      <c r="F85" s="171"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3262,26 +3354,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="139"/>
-      <c r="C87" s="139"/>
-      <c r="D87" s="139"/>
-      <c r="E87" s="139"/>
+      <c r="B87" s="169"/>
+      <c r="C87" s="169"/>
+      <c r="D87" s="169"/>
+      <c r="E87" s="169"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="145" t="s">
+      <c r="A88" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="145"/>
-      <c r="C88" s="145"/>
-      <c r="D88" s="145"/>
-      <c r="E88" s="145"/>
-      <c r="F88" s="145"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="136"/>
-      <c r="C90" s="137"/>
-      <c r="D90" s="137"/>
+      <c r="B90" s="166"/>
+      <c r="C90" s="167"/>
+      <c r="D90" s="167"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3291,34 +3383,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3335,6 +3399,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3493,14 +3585,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3521,313 +3613,313 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="163" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="163" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="140" t="s">
+      <c r="B38" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="140" t="s">
+      <c r="B40" s="163" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="163" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="163" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="140" t="s">
+      <c r="B46" s="163" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="140" t="s">
+      <c r="B48" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="140" t="s">
+      <c r="B50" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="140" t="s">
+      <c r="B58" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="140" t="s">
+      <c r="B60" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="140" t="s">
+      <c r="B62" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="140" t="s">
+      <c r="B64" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -3857,17 +3949,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -3974,19 +4066,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="144"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="170"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -3994,9 +4086,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="144"/>
-      <c r="C82" s="144"/>
-      <c r="D82" s="144"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="165"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -4031,31 +4123,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="138"/>
-      <c r="C86" s="138"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="146" t="s">
+      <c r="A87" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="146"/>
-      <c r="C87" s="146"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="142" t="s">
+      <c r="A88" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="142"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
+      <c r="B88" s="171"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="171"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -4067,26 +4159,26 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="139"/>
-      <c r="C90" s="139"/>
-      <c r="D90" s="139"/>
-      <c r="E90" s="139"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
+      <c r="E90" s="169"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="145" t="s">
+      <c r="A91" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="145"/>
-      <c r="C91" s="145"/>
-      <c r="D91" s="145"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="145"/>
+      <c r="B91" s="161"/>
+      <c r="C91" s="161"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="161"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="136"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
+      <c r="B93" s="166"/>
+      <c r="C93" s="167"/>
+      <c r="D93" s="167"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4096,6 +4188,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B62:D62"/>
@@ -4112,37 +4235,6 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{02070597-8102-49B8-84BD-FCDFBFE81EFC}">
@@ -4300,14 +4392,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4328,305 +4420,305 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="163" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="140" t="s">
+      <c r="B38" s="163" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="140" t="s">
+      <c r="B40" s="163" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="163" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="163" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="140" t="s">
+      <c r="B46" s="163" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="140" t="s">
+      <c r="B48" s="163" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="140" t="s">
+      <c r="B50" s="163" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="163" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="140" t="s">
+      <c r="B56" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -4656,17 +4748,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -4773,19 +4865,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="144"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="170"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -4793,9 +4885,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="144"/>
-      <c r="C82" s="144"/>
-      <c r="D82" s="144"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="165"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -4830,31 +4922,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="138"/>
-      <c r="C86" s="138"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="146" t="s">
+      <c r="A87" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="146"/>
-      <c r="C87" s="146"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="142" t="s">
+      <c r="A88" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="142"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
+      <c r="B88" s="171"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="171"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -4866,26 +4958,26 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="139"/>
-      <c r="C90" s="139"/>
-      <c r="D90" s="139"/>
-      <c r="E90" s="139"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
+      <c r="E90" s="169"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="145" t="s">
+      <c r="A91" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="145"/>
-      <c r="C91" s="145"/>
-      <c r="D91" s="145"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="145"/>
+      <c r="B91" s="161"/>
+      <c r="C91" s="161"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="161"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="136"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
+      <c r="B93" s="166"/>
+      <c r="C93" s="167"/>
+      <c r="D93" s="167"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4895,18 +4987,24 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
     <mergeCell ref="B60:D60"/>
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B46:D46"/>
@@ -4921,27 +5019,21 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
     <mergeCell ref="B57:D57"/>
     <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B56 B57:B71" xr:uid="{E7D5C41C-BF93-417A-AB6E-E1DD34419DBC}">
@@ -5099,14 +5191,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="143" t="s">
+      <c r="A30" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5127,303 +5219,303 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="140" t="s">
+      <c r="B34" s="163" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="140" t="s">
+      <c r="B36" s="163" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="140" t="s">
+      <c r="B38" s="163" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="140" t="s">
+      <c r="B40" s="163" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="140" t="s">
+      <c r="B42" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="140" t="s">
+      <c r="B44" s="163" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="140" t="s">
+      <c r="B46" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="140" t="s">
+      <c r="B48" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="140" t="s">
+      <c r="B50" s="163" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="140" t="s">
+      <c r="B52" s="163" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="140" t="s">
+      <c r="B54" s="163" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -5453,17 +5545,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -5570,19 +5662,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="144"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="141" t="s">
+      <c r="B81" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
+      <c r="C81" s="170"/>
+      <c r="D81" s="170"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -5590,9 +5682,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="144"/>
-      <c r="C82" s="144"/>
-      <c r="D82" s="144"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="165"/>
+      <c r="D82" s="165"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -5627,31 +5719,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="138"/>
-      <c r="C86" s="138"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="146" t="s">
+      <c r="A87" s="162" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="146"/>
-      <c r="C87" s="146"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="142" t="s">
+      <c r="A88" s="171" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="142"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
+      <c r="B88" s="171"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="171"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -5663,26 +5755,811 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="139"/>
-      <c r="C90" s="139"/>
-      <c r="D90" s="139"/>
-      <c r="E90" s="139"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
+      <c r="E90" s="169"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="145" t="s">
+      <c r="A91" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="145"/>
-      <c r="C91" s="145"/>
-      <c r="D91" s="145"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="145"/>
+      <c r="B91" s="161"/>
+      <c r="C91" s="161"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="161"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="136"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
+      <c r="B93" s="166"/>
+      <c r="C93" s="167"/>
+      <c r="D93" s="167"/>
+    </row>
+    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{5057C1A9-191C-459D-8FE9-547B78B580AD}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD72DD7-CC4D-41A0-B7AC-A996819BD9F0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F95"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="164"/>
+      <c r="C30" s="164"/>
+      <c r="D30" s="164"/>
+      <c r="E30" s="164"/>
+      <c r="F30" s="164"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="163"/>
+      <c r="C33" s="163"/>
+      <c r="D33" s="163"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="163" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="163"/>
+      <c r="D34" s="163"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="163"/>
+      <c r="C35" s="163"/>
+      <c r="D35" s="163"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="163" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="163"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="163"/>
+      <c r="C37" s="163"/>
+      <c r="D37" s="163"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="163" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="163"/>
+      <c r="D38" s="163"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="163"/>
+      <c r="C39" s="163"/>
+      <c r="D39" s="163"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="163" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="163"/>
+      <c r="D40" s="163"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="163"/>
+      <c r="C41" s="163"/>
+      <c r="D41" s="163"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="163" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="163"/>
+      <c r="D42" s="163"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="163"/>
+      <c r="C43" s="163"/>
+      <c r="D43" s="163"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="163"/>
+      <c r="C44" s="163"/>
+      <c r="D44" s="163"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="163"/>
+      <c r="C45" s="163"/>
+      <c r="D45" s="163"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="163"/>
+      <c r="C46" s="163"/>
+      <c r="D46" s="163"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="163"/>
+      <c r="C47" s="163"/>
+      <c r="D47" s="163"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="163"/>
+      <c r="C48" s="163"/>
+      <c r="D48" s="163"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="163"/>
+      <c r="C49" s="163"/>
+      <c r="D49" s="163"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="163"/>
+      <c r="C50" s="163"/>
+      <c r="D50" s="163"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="163"/>
+      <c r="C51" s="163"/>
+      <c r="D51" s="163"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="163"/>
+      <c r="C52" s="163"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="163"/>
+      <c r="C53" s="163"/>
+      <c r="D53" s="163"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="163"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="163"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="163"/>
+      <c r="C55" s="163"/>
+      <c r="D55" s="163"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="163"/>
+      <c r="C56" s="163"/>
+      <c r="D56" s="163"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="163"/>
+      <c r="C57" s="163"/>
+      <c r="D57" s="163"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="163"/>
+      <c r="C58" s="163"/>
+      <c r="D58" s="163"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="163"/>
+      <c r="C59" s="163"/>
+      <c r="D59" s="163"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="163"/>
+      <c r="C60" s="163"/>
+      <c r="D60" s="163"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="163"/>
+      <c r="C61" s="163"/>
+      <c r="D61" s="163"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="163"/>
+      <c r="C62" s="163"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="163"/>
+      <c r="C63" s="163"/>
+      <c r="D63" s="163"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="163"/>
+      <c r="C64" s="163"/>
+      <c r="D64" s="163"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="163"/>
+      <c r="C65" s="163"/>
+      <c r="D65" s="163"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="163"/>
+      <c r="C66" s="163"/>
+      <c r="D66" s="163"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="163"/>
+      <c r="C67" s="163"/>
+      <c r="D67" s="163"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="51">
+        <v>23.75</v>
+      </c>
+      <c r="D69" s="52">
+        <v>350</v>
+      </c>
+      <c r="E69" s="49"/>
+      <c r="F69" s="46"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="163"/>
+      <c r="C70" s="163"/>
+      <c r="D70" s="163"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="163"/>
+      <c r="C71" s="163"/>
+      <c r="D71" s="163"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>D69*C69</f>
+        <v>8312.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="30">
+        <v>0</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="30">
+        <v>0</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="29">
+        <f>SUM(E72:E74)</f>
+        <v>8312.5</v>
+      </c>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="35">
+        <f>ROUND(E75*C76,2)</f>
+        <v>415.63</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="43">
+        <f>ROUND(E75*C77,2)</f>
+        <v>829.17</v>
+      </c>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="33">
+        <f>SUM(E75:E77)</f>
+        <v>9557.2999999999993</v>
+      </c>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="165"/>
+      <c r="C80" s="165"/>
+      <c r="D80" s="165"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="170" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="170"/>
+      <c r="D81" s="170"/>
+      <c r="E81" s="36">
+        <v>0</v>
+      </c>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="165"/>
+      <c r="C82" s="165"/>
+      <c r="D82" s="165"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39">
+        <f>E79-E81</f>
+        <v>9557.2999999999993</v>
+      </c>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="168"/>
+      <c r="D86" s="168"/>
+      <c r="E86" s="168"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="162" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="162"/>
+      <c r="C87" s="162"/>
+      <c r="D87" s="162"/>
+      <c r="E87" s="162"/>
+      <c r="F87" s="162"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="171" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="171"/>
+      <c r="C88" s="171"/>
+      <c r="D88" s="171"/>
+      <c r="E88" s="171"/>
+      <c r="F88" s="171"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="169"/>
+      <c r="C90" s="169"/>
+      <c r="D90" s="169"/>
+      <c r="E90" s="169"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="161"/>
+      <c r="C91" s="161"/>
+      <c r="D91" s="161"/>
+      <c r="E91" s="161"/>
+      <c r="F91" s="161"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="166"/>
+      <c r="C93" s="167"/>
+      <c r="D93" s="167"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5741,791 +6618,6 @@
     <mergeCell ref="B93:D93"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{5057C1A9-191C-459D-8FE9-547B78B580AD}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD72DD7-CC4D-41A0-B7AC-A996819BD9F0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F95"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:D70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="143"/>
-      <c r="C30" s="143"/>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143"/>
-      <c r="F30" s="143"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="140" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="140"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="140"/>
-      <c r="C35" s="140"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="140" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="140"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="140"/>
-      <c r="C37" s="140"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="140" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="140"/>
-      <c r="D38" s="140"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="140"/>
-      <c r="C39" s="140"/>
-      <c r="D39" s="140"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="140" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="140"/>
-      <c r="C41" s="140"/>
-      <c r="D41" s="140"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="140" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="140"/>
-      <c r="D42" s="140"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="140"/>
-      <c r="C43" s="140"/>
-      <c r="D43" s="140"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="140"/>
-      <c r="C44" s="140"/>
-      <c r="D44" s="140"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="140"/>
-      <c r="C45" s="140"/>
-      <c r="D45" s="140"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="140"/>
-      <c r="C46" s="140"/>
-      <c r="D46" s="140"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="140"/>
-      <c r="C47" s="140"/>
-      <c r="D47" s="140"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="140"/>
-      <c r="C48" s="140"/>
-      <c r="D48" s="140"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="140"/>
-      <c r="C49" s="140"/>
-      <c r="D49" s="140"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="140"/>
-      <c r="C50" s="140"/>
-      <c r="D50" s="140"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="140"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="140"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="140"/>
-      <c r="C53" s="140"/>
-      <c r="D53" s="140"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="140"/>
-      <c r="C54" s="140"/>
-      <c r="D54" s="140"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="140"/>
-      <c r="C55" s="140"/>
-      <c r="D55" s="140"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="140"/>
-      <c r="C56" s="140"/>
-      <c r="D56" s="140"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="140"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="140"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="140"/>
-      <c r="C58" s="140"/>
-      <c r="D58" s="140"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="140"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="140"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="140"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="140"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="140"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="140"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="140"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="140"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="140"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="46"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="51">
-        <v>23.75</v>
-      </c>
-      <c r="D69" s="52">
-        <v>350</v>
-      </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="46"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="140"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="140"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>D69*C69</f>
-        <v>8312.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="30">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="30">
-        <v>0</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="29">
-        <f>SUM(E72:E74)</f>
-        <v>8312.5</v>
-      </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="35">
-        <f>ROUND(E75*C76,2)</f>
-        <v>415.63</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="43">
-        <f>ROUND(E75*C77,2)</f>
-        <v>829.17</v>
-      </c>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="33">
-        <f>SUM(E75:E77)</f>
-        <v>9557.2999999999993</v>
-      </c>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="144"/>
-      <c r="C80" s="144"/>
-      <c r="D80" s="144"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="141" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="141"/>
-      <c r="D81" s="141"/>
-      <c r="E81" s="36">
-        <v>0</v>
-      </c>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="144"/>
-      <c r="C82" s="144"/>
-      <c r="D82" s="144"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39">
-        <f>E79-E81</f>
-        <v>9557.2999999999993</v>
-      </c>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="138"/>
-      <c r="C86" s="138"/>
-      <c r="D86" s="138"/>
-      <c r="E86" s="138"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="146" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="146"/>
-      <c r="C87" s="146"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="146"/>
-      <c r="F87" s="146"/>
-    </row>
-    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="142" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" s="142"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
-      <c r="B90" s="139"/>
-      <c r="C90" s="139"/>
-      <c r="D90" s="139"/>
-      <c r="E90" s="139"/>
-      <c r="F90" s="21"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="145" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="145"/>
-      <c r="C91" s="145"/>
-      <c r="D91" s="145"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="145"/>
-    </row>
-    <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="136"/>
-      <c r="C93" s="137"/>
-      <c r="D93" s="137"/>
-    </row>
-    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{F33BCA02-C133-4942-920F-660677FF5144}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -6559,10 +6651,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="147" t="s">
+      <c r="B1" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="147"/>
+      <c r="C1" s="172"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7195,13 +7287,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="150" t="s">
+      <c r="A30" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="150"/>
-      <c r="C30" s="150"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="150"/>
+      <c r="B30" s="175"/>
+      <c r="C30" s="175"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -7676,10 +7768,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="151" t="s">
+      <c r="B81" s="176" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="152"/>
+      <c r="C81" s="177"/>
       <c r="D81" s="126"/>
       <c r="E81" s="127">
         <v>20781.73</v>
@@ -7696,30 +7788,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="153"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="155"/>
-      <c r="E83" s="155"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="131"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="156" t="s">
+      <c r="A84" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="156"/>
-      <c r="C84" s="156"/>
-      <c r="D84" s="157"/>
-      <c r="E84" s="157"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="158" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="158"/>
-      <c r="C85" s="158"/>
-      <c r="D85" s="159"/>
-      <c r="E85" s="159"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -7739,21 +7831,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="145" t="s">
+      <c r="A88" s="161" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="145"/>
-      <c r="C88" s="145"/>
-      <c r="D88" s="145"/>
-      <c r="E88" s="145"/>
-      <c r="F88" s="145"/>
+      <c r="B88" s="161"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="148"/>
-      <c r="C89" s="148"/>
-      <c r="D89" s="149"/>
-      <c r="E89" s="149"/>
+      <c r="B89" s="173"/>
+      <c r="C89" s="173"/>
+      <c r="D89" s="174"/>
+      <c r="E89" s="174"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -7786,6 +7878,833 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="143" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="143" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="143"/>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="143"/>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="143"/>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="143"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="143"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="152">
+        <v>5</v>
+      </c>
+      <c r="D66" s="153">
+        <v>350</v>
+      </c>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="143"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>1750</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>0</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>1750</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>87.5</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>174.56</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>2012.06</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="186" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="187"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="159">
+        <v>2012.06</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="160"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="188"/>
+      <c r="C88" s="188"/>
+      <c r="D88" s="188"/>
+      <c r="E88" s="188"/>
+      <c r="F88" s="188"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98824F49-A9F2-4C1F-8597-CE9E8D13B75A}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
@@ -7963,7 +8882,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -7981,7 +8900,7 @@
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="62"/>
       <c r="B23" s="59" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="60"/>
@@ -8034,43 +8953,43 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F28" s="67"/>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="160"/>
-      <c r="B29" s="160"/>
-      <c r="C29" s="160"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="162"/>
-      <c r="F29" s="162"/>
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="163" t="s">
+      <c r="A30" s="185" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="163"/>
-      <c r="C30" s="163"/>
-      <c r="D30" s="163"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="185"/>
+      <c r="C30" s="185"/>
+      <c r="D30" s="185"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="165"/>
-      <c r="B31" s="165"/>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="165"/>
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="78"/>
       <c r="B32" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
       <c r="E32" s="93"/>
       <c r="F32" s="93"/>
     </row>
@@ -8078,306 +8997,318 @@
       <c r="A33" s="78"/>
       <c r="B33" s="78"/>
       <c r="C33" s="78"/>
-      <c r="D33" s="167"/>
+      <c r="D33" s="142"/>
       <c r="E33" s="93"/>
       <c r="F33" s="93"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
-      <c r="B34" s="168" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
+      <c r="B34" s="143" t="s">
+        <v>126</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="78"/>
-      <c r="B35" s="168" t="s">
+      <c r="B35" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C35" s="171"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
-      <c r="B36" s="168" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="169"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
+      <c r="B36" s="143" t="s">
+        <v>127</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="78"/>
-      <c r="B37" s="168" t="s">
+      <c r="B37" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C37" s="169"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170"/>
-      <c r="F37" s="170"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
-      <c r="B38" s="168" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="169"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170"/>
-      <c r="F38" s="170"/>
+      <c r="B38" s="143" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="78"/>
-      <c r="B39" s="168"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
+      <c r="B39" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
-      <c r="B40" s="168"/>
-      <c r="C40" s="171"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
+      <c r="B40" s="143" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="78"/>
-      <c r="B41" s="168"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
+      <c r="B41" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
-      <c r="B42" s="168"/>
-      <c r="C42" s="169"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
+      <c r="B42" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="78"/>
-      <c r="B43" s="168"/>
-      <c r="C43" s="169"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
+      <c r="B43" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
+      <c r="B44" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="78"/>
-      <c r="B45" s="168"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
+      <c r="B45" s="143"/>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
-      <c r="B46" s="168"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
-      <c r="B47" s="168"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
-      <c r="B48" s="168"/>
-      <c r="C48" s="169"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
-      <c r="B49" s="168"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
-      <c r="B50" s="168"/>
-      <c r="C50" s="172"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
-      <c r="B51" s="168"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
-      <c r="B52" s="168"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
-      <c r="B53" s="168"/>
-      <c r="C53" s="169"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
-      <c r="B54" s="168"/>
-      <c r="C54" s="169"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170"/>
-      <c r="F54" s="170"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="78"/>
-      <c r="B55" s="168"/>
-      <c r="C55" s="169"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="78"/>
-      <c r="B56" s="168"/>
-      <c r="C56" s="169"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
-      <c r="B57" s="168"/>
-      <c r="C57" s="169"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
+      <c r="B57" s="143"/>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="78"/>
-      <c r="B58" s="168"/>
-      <c r="C58" s="169"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="78"/>
-      <c r="B59" s="168"/>
-      <c r="C59" s="169"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="78"/>
-      <c r="B60" s="168"/>
-      <c r="C60" s="169"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="78"/>
-      <c r="B61" s="168"/>
-      <c r="C61" s="169"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="78"/>
-      <c r="B62" s="168"/>
-      <c r="C62" s="169"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="170"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
-      <c r="B63" s="168"/>
-      <c r="C63" s="173"/>
-      <c r="D63" s="174"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="168"/>
+      <c r="B64" s="155"/>
       <c r="C64" s="92"/>
       <c r="D64" s="93"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="170"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="78"/>
-      <c r="B65" s="168"/>
-      <c r="C65" s="175" t="s">
+      <c r="B65" s="143"/>
+      <c r="C65" s="150" t="s">
         <v>37</v>
       </c>
-      <c r="D65" s="176" t="s">
+      <c r="D65" s="151" t="s">
         <v>38</v>
       </c>
-      <c r="E65" s="170"/>
-      <c r="F65" s="170"/>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="78"/>
-      <c r="B66" s="168"/>
-      <c r="C66" s="177">
-        <v>5</v>
-      </c>
-      <c r="D66" s="178">
-        <v>350</v>
-      </c>
-      <c r="E66" s="179"/>
-      <c r="F66" s="179"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="152">
+        <v>27</v>
+      </c>
+      <c r="D66" s="153">
+        <v>400</v>
+      </c>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
-      <c r="B67" s="168"/>
-      <c r="C67" s="177"/>
-      <c r="D67" s="178"/>
-      <c r="E67" s="170"/>
-      <c r="F67" s="170"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
-      <c r="B68" s="180"/>
-      <c r="C68" s="181"/>
-      <c r="D68" s="181"/>
-      <c r="E68" s="181"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
       <c r="F68" s="78"/>
     </row>
     <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -8388,7 +9319,7 @@
       <c r="C69" s="102"/>
       <c r="D69" s="60"/>
       <c r="E69" s="103">
-        <v>1750</v>
+        <v>10800</v>
       </c>
       <c r="F69" s="103"/>
     </row>
@@ -8406,7 +9337,7 @@
     </row>
     <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="62"/>
-      <c r="B71" s="182" t="s">
+      <c r="B71" s="157" t="s">
         <v>116</v>
       </c>
       <c r="C71" s="106"/>
@@ -8418,7 +9349,7 @@
     </row>
     <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="62"/>
-      <c r="B72" s="182" t="s">
+      <c r="B72" s="157" t="s">
         <v>13</v>
       </c>
       <c r="C72" s="106"/>
@@ -8436,7 +9367,7 @@
       <c r="C73" s="102"/>
       <c r="D73" s="60"/>
       <c r="E73" s="109">
-        <v>1750</v>
+        <v>10800</v>
       </c>
       <c r="F73" s="109"/>
     </row>
@@ -8450,7 +9381,7 @@
       </c>
       <c r="D74" s="106"/>
       <c r="E74" s="111">
-        <v>87.5</v>
+        <v>540</v>
       </c>
       <c r="F74" s="111"/>
     </row>
@@ -8464,7 +9395,7 @@
       </c>
       <c r="D75" s="106"/>
       <c r="E75" s="114">
-        <v>174.56</v>
+        <v>1077.3</v>
       </c>
       <c r="F75" s="111"/>
     </row>
@@ -8484,7 +9415,7 @@
       <c r="C77" s="102"/>
       <c r="D77" s="118"/>
       <c r="E77" s="119">
-        <v>2012.06</v>
+        <v>12417.3</v>
       </c>
       <c r="F77" s="120"/>
     </row>
@@ -8518,13 +9449,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="183" t="s">
+      <c r="B81" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="184"/>
-      <c r="D81" s="185"/>
-      <c r="E81" s="186">
-        <v>2012.06</v>
+      <c r="C81" s="187"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="159">
+        <v>12417.3</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -8538,30 +9469,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="153"/>
-      <c r="C83" s="154"/>
-      <c r="D83" s="154"/>
-      <c r="E83" s="154"/>
-      <c r="F83" s="187"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="160"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="156" t="s">
+      <c r="A84" s="181" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="156"/>
-      <c r="C84" s="156"/>
-      <c r="D84" s="156"/>
-      <c r="E84" s="156"/>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="158" t="s">
+      <c r="A85" s="183" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="158"/>
-      <c r="C85" s="158"/>
-      <c r="D85" s="158"/>
-      <c r="E85" s="158"/>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">

--- a/Factures_Excel/1731 - Les Toitures C.B.C. Inc..xlsx
+++ b/Factures_Excel/1731 - Les Toitures C.B.C. Inc..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19D6716-DE5F-400D-B7E1-74C31F0E243B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A797DDF-A6DB-41FF-BFEF-405F59162CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-02-24" sheetId="4" r:id="rId1"/>
@@ -22,9 +22,10 @@
     <sheet name="2024-09-07 - 24-24497" sheetId="10" r:id="rId7"/>
     <sheet name="2024-11-16 - 24-24630" sheetId="11" r:id="rId8"/>
     <sheet name="2025-03-01 - 25-24755" sheetId="12" r:id="rId9"/>
+    <sheet name="2025-04-03 - 25-24889" sheetId="13" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -40,6 +41,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'19-02-24'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2024-11-16 - 24-24630'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2025-03-01 - 25-24755'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-04-03 - 25-24889'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'26-05-24'!$A$1:$F$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'28-07-24'!$A$1:$F$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Activités!$A$1:$D$48</definedName>
@@ -61,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="139">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -455,6 +457,30 @@
   </si>
   <si>
     <t xml:space="preserve"> - Diverses discussions téléphoniques avec vous et votre comptable;</t>
+  </si>
+  <si>
+    <t>Le 3 AVRIL 2025</t>
+  </si>
+  <si>
+    <t>25-24889</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail avec votre comptable à la préparation/révision des états financiers et déclarations de revenus de toutes les entités;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse et travail avec votre juriste relativement à la convention entre actionnaire ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de tous les formulaires T5/Relevés 3 de toutes les entités ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation des déclarations de revenus de toutes les entités et des différentes annexes à compléter ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse des tableaux de calculs de juste valeur marchande des différentes entités et commentaires ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - </t>
   </si>
 </sst>
 </file>
@@ -803,7 +829,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,6 +851,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,7 +1065,7 @@
     <xf numFmtId="9" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1421,39 +1453,39 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1493,6 +1525,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1502,8 +1537,8 @@
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2005,6 +2040,72 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E31213F-C6C6-4516-4EED-D82E4383DCD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9217" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC23F653-4697-1AE8-B855-77325B3DE1BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2810,14 +2911,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2838,283 +2939,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163"/>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="B34" s="165"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163" t="s">
+      <c r="B35" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163"/>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="B36" s="165"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163" t="s">
+      <c r="B37" s="165" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163"/>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="B38" s="165"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163" t="s">
+      <c r="B39" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163"/>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="B40" s="165"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163"/>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="B42" s="165"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163" t="s">
+      <c r="B43" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163" t="s">
+      <c r="B45" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163" t="s">
+      <c r="B49" s="165" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163" t="s">
+      <c r="B51" s="165" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163" t="s">
+      <c r="B53" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163" t="s">
+      <c r="B55" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163" t="s">
+      <c r="B57" s="165" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163" t="s">
+      <c r="B59" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3144,17 +3245,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="163"/>
-      <c r="C68" s="163"/>
-      <c r="D68" s="163"/>
+      <c r="B68" s="165"/>
+      <c r="C68" s="165"/>
+      <c r="D68" s="165"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3261,19 +3362,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="165"/>
-      <c r="C77" s="165"/>
-      <c r="D77" s="165"/>
+      <c r="B77" s="169"/>
+      <c r="C77" s="169"/>
+      <c r="D77" s="169"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="170" t="s">
+      <c r="B78" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
+      <c r="C78" s="166"/>
+      <c r="D78" s="166"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3281,9 +3382,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="165"/>
-      <c r="C79" s="165"/>
-      <c r="D79" s="165"/>
+      <c r="B79" s="169"/>
+      <c r="C79" s="169"/>
+      <c r="D79" s="169"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3318,31 +3419,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="168"/>
-      <c r="C83" s="168"/>
-      <c r="D83" s="168"/>
-      <c r="E83" s="168"/>
+      <c r="B83" s="163"/>
+      <c r="C83" s="163"/>
+      <c r="D83" s="163"/>
+      <c r="E83" s="163"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="162" t="s">
+      <c r="A84" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="162"/>
-      <c r="C84" s="162"/>
-      <c r="D84" s="162"/>
-      <c r="E84" s="162"/>
-      <c r="F84" s="162"/>
+      <c r="B84" s="171"/>
+      <c r="C84" s="171"/>
+      <c r="D84" s="171"/>
+      <c r="E84" s="171"/>
+      <c r="F84" s="171"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="171" t="s">
+      <c r="A85" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="171"/>
-      <c r="C85" s="171"/>
-      <c r="D85" s="171"/>
-      <c r="E85" s="171"/>
-      <c r="F85" s="171"/>
+      <c r="B85" s="167"/>
+      <c r="C85" s="167"/>
+      <c r="D85" s="167"/>
+      <c r="E85" s="167"/>
+      <c r="F85" s="167"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3354,26 +3455,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="169"/>
-      <c r="C87" s="169"/>
-      <c r="D87" s="169"/>
-      <c r="E87" s="169"/>
+      <c r="B87" s="164"/>
+      <c r="C87" s="164"/>
+      <c r="D87" s="164"/>
+      <c r="E87" s="164"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="161" t="s">
+      <c r="A88" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="161"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="161"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="170"/>
+      <c r="E88" s="170"/>
+      <c r="F88" s="170"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="166"/>
-      <c r="C90" s="167"/>
-      <c r="D90" s="167"/>
+      <c r="B90" s="161"/>
+      <c r="C90" s="162"/>
+      <c r="D90" s="162"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3383,6 +3484,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3399,34 +3528,6 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3438,6 +3539,851 @@
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7785825A-F2FE-4029-9BF7-D09DF1F2C4D8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="186" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="143" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="143" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="152">
+        <v>45</v>
+      </c>
+      <c r="D66" s="153">
+        <v>385</v>
+      </c>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>17325</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>20</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>17345</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>867.25</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>1730.16</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>19942.41</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="187" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="188"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="159">
+        <v>19942.41</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="178"/>
+      <c r="C83" s="179"/>
+      <c r="D83" s="179"/>
+      <c r="E83" s="179"/>
+      <c r="F83" s="160"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="181" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="181"/>
+      <c r="C84" s="181"/>
+      <c r="D84" s="181"/>
+      <c r="E84" s="181"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="183" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="183"/>
+      <c r="C85" s="183"/>
+      <c r="D85" s="183"/>
+      <c r="E85" s="183"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="185"/>
+      <c r="C88" s="185"/>
+      <c r="D88" s="185"/>
+      <c r="E88" s="185"/>
+      <c r="F88" s="185"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A88:F88"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -3585,14 +4531,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -3613,313 +4559,313 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163" t="s">
+      <c r="B58" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163" t="s">
+      <c r="B60" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163" t="s">
+      <c r="B62" s="165" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163" t="s">
+      <c r="B64" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -3949,17 +4895,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -4066,19 +5012,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="165"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="170" t="s">
+      <c r="B81" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="166"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -4086,9 +5032,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -4123,31 +5069,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="168"/>
-      <c r="C86" s="168"/>
-      <c r="D86" s="168"/>
-      <c r="E86" s="168"/>
+      <c r="B86" s="163"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="162" t="s">
+      <c r="A87" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="162"/>
-      <c r="C87" s="162"/>
-      <c r="D87" s="162"/>
-      <c r="E87" s="162"/>
-      <c r="F87" s="162"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="171" t="s">
+      <c r="A88" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="171"/>
-      <c r="C88" s="171"/>
-      <c r="D88" s="171"/>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
+      <c r="B88" s="167"/>
+      <c r="C88" s="167"/>
+      <c r="D88" s="167"/>
+      <c r="E88" s="167"/>
+      <c r="F88" s="167"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -4159,26 +5105,26 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="169"/>
-      <c r="E90" s="169"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="161" t="s">
+      <c r="A91" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="161"/>
-      <c r="C91" s="161"/>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="161"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="170"/>
+      <c r="E91" s="170"/>
+      <c r="F91" s="170"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="166"/>
-      <c r="C93" s="167"/>
-      <c r="D93" s="167"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="162"/>
+      <c r="D93" s="162"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4188,6 +5134,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
     <mergeCell ref="B42:D42"/>
     <mergeCell ref="A30:F30"/>
     <mergeCell ref="B33:D33"/>
@@ -4204,37 +5181,6 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="B44:D44"/>
     <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{02070597-8102-49B8-84BD-FCDFBFE81EFC}">
@@ -4392,14 +5338,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4420,305 +5366,305 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163" t="s">
+      <c r="B56" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -4748,17 +5694,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -4865,19 +5811,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="165"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="170" t="s">
+      <c r="B81" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="166"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -4885,9 +5831,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -4922,31 +5868,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="168"/>
-      <c r="C86" s="168"/>
-      <c r="D86" s="168"/>
-      <c r="E86" s="168"/>
+      <c r="B86" s="163"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="162" t="s">
+      <c r="A87" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="162"/>
-      <c r="C87" s="162"/>
-      <c r="D87" s="162"/>
-      <c r="E87" s="162"/>
-      <c r="F87" s="162"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="171" t="s">
+      <c r="A88" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="171"/>
-      <c r="C88" s="171"/>
-      <c r="D88" s="171"/>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
+      <c r="B88" s="167"/>
+      <c r="C88" s="167"/>
+      <c r="D88" s="167"/>
+      <c r="E88" s="167"/>
+      <c r="F88" s="167"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -4958,26 +5904,26 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="169"/>
-      <c r="E90" s="169"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="161" t="s">
+      <c r="A91" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="161"/>
-      <c r="C91" s="161"/>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="161"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="170"/>
+      <c r="E91" s="170"/>
+      <c r="F91" s="170"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="166"/>
-      <c r="C93" s="167"/>
-      <c r="D93" s="167"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="162"/>
+      <c r="D93" s="162"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4987,6 +5933,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B59:D59"/>
     <mergeCell ref="A87:F87"/>
@@ -5003,37 +5980,6 @@
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
     <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B41:D41"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B56 B57:B71" xr:uid="{E7D5C41C-BF93-417A-AB6E-E1DD34419DBC}">
@@ -5191,14 +6137,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5219,303 +6165,303 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
+      <c r="B34" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="165" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="165" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="165" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="165" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="163" t="s">
+      <c r="B46" s="165" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="163" t="s">
+      <c r="B48" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="163" t="s">
+      <c r="B50" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="163" t="s">
+      <c r="B52" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="163" t="s">
+      <c r="B54" s="165" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -5545,17 +6491,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -5662,19 +6608,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="165"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="170" t="s">
+      <c r="B81" s="166" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
+      <c r="C81" s="166"/>
+      <c r="D81" s="166"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -5682,9 +6628,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -5719,31 +6665,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="168"/>
-      <c r="C86" s="168"/>
-      <c r="D86" s="168"/>
-      <c r="E86" s="168"/>
+      <c r="B86" s="163"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="162" t="s">
+      <c r="A87" s="171" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="162"/>
-      <c r="C87" s="162"/>
-      <c r="D87" s="162"/>
-      <c r="E87" s="162"/>
-      <c r="F87" s="162"/>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="171" t="s">
+      <c r="A88" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="171"/>
-      <c r="C88" s="171"/>
-      <c r="D88" s="171"/>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
+      <c r="B88" s="167"/>
+      <c r="C88" s="167"/>
+      <c r="D88" s="167"/>
+      <c r="E88" s="167"/>
+      <c r="F88" s="167"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -5755,26 +6701,811 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="169"/>
-      <c r="E90" s="169"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="161" t="s">
+      <c r="A91" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="161"/>
-      <c r="C91" s="161"/>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="161"/>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="170"/>
+      <c r="E91" s="170"/>
+      <c r="F91" s="170"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="166"/>
-      <c r="C93" s="167"/>
-      <c r="D93" s="167"/>
+      <c r="B93" s="161"/>
+      <c r="C93" s="162"/>
+      <c r="D93" s="162"/>
+    </row>
+    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B93:D93"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{5057C1A9-191C-459D-8FE9-547B78B580AD}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD72DD7-CC4D-41A0-B7AC-A996819BD9F0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F95"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="168"/>
+      <c r="C30" s="168"/>
+      <c r="D30" s="168"/>
+      <c r="E30" s="168"/>
+      <c r="F30" s="168"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="165"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="165" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="165"/>
+      <c r="C35" s="165"/>
+      <c r="D35" s="165"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="165" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="165"/>
+      <c r="D36" s="165"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="165"/>
+      <c r="C37" s="165"/>
+      <c r="D37" s="165"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="165" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="165"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="165" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="165"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="165"/>
+      <c r="C41" s="165"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="165" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="165"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="165"/>
+      <c r="C43" s="165"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="165"/>
+      <c r="C46" s="165"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="165"/>
+      <c r="C47" s="165"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="165"/>
+      <c r="C48" s="165"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="165"/>
+      <c r="C49" s="165"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="165"/>
+      <c r="C50" s="165"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="165"/>
+      <c r="C51" s="165"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="165"/>
+      <c r="C52" s="165"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="165"/>
+      <c r="C53" s="165"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="165"/>
+      <c r="C54" s="165"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="165"/>
+      <c r="C55" s="165"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="165"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="165"/>
+      <c r="C57" s="165"/>
+      <c r="D57" s="165"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="165"/>
+      <c r="C58" s="165"/>
+      <c r="D58" s="165"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="165"/>
+      <c r="C59" s="165"/>
+      <c r="D59" s="165"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="165"/>
+      <c r="C60" s="165"/>
+      <c r="D60" s="165"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="165"/>
+      <c r="C61" s="165"/>
+      <c r="D61" s="165"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="165"/>
+      <c r="C62" s="165"/>
+      <c r="D62" s="165"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="165"/>
+      <c r="C63" s="165"/>
+      <c r="D63" s="165"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="165"/>
+      <c r="C64" s="165"/>
+      <c r="D64" s="165"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="165"/>
+      <c r="C65" s="165"/>
+      <c r="D65" s="165"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="165"/>
+      <c r="C66" s="165"/>
+      <c r="D66" s="165"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="165"/>
+      <c r="C67" s="165"/>
+      <c r="D67" s="165"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="51">
+        <v>23.75</v>
+      </c>
+      <c r="D69" s="52">
+        <v>350</v>
+      </c>
+      <c r="E69" s="49"/>
+      <c r="F69" s="46"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="165"/>
+      <c r="C70" s="165"/>
+      <c r="D70" s="165"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="165"/>
+      <c r="C71" s="165"/>
+      <c r="D71" s="165"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>D69*C69</f>
+        <v>8312.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="30">
+        <v>0</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="30">
+        <v>0</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="29">
+        <f>SUM(E72:E74)</f>
+        <v>8312.5</v>
+      </c>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="35">
+        <f>ROUND(E75*C76,2)</f>
+        <v>415.63</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="43">
+        <f>ROUND(E75*C77,2)</f>
+        <v>829.17</v>
+      </c>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="33">
+        <f>SUM(E75:E77)</f>
+        <v>9557.2999999999993</v>
+      </c>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="169"/>
+      <c r="C80" s="169"/>
+      <c r="D80" s="169"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="166"/>
+      <c r="D81" s="166"/>
+      <c r="E81" s="36">
+        <v>0</v>
+      </c>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="169"/>
+      <c r="C82" s="169"/>
+      <c r="D82" s="169"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39">
+        <f>E79-E81</f>
+        <v>9557.2999999999993</v>
+      </c>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="163"/>
+      <c r="C86" s="163"/>
+      <c r="D86" s="163"/>
+      <c r="E86" s="163"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="171" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="171"/>
+      <c r="C87" s="171"/>
+      <c r="D87" s="171"/>
+      <c r="E87" s="171"/>
+      <c r="F87" s="171"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="167" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="167"/>
+      <c r="C88" s="167"/>
+      <c r="D88" s="167"/>
+      <c r="E88" s="167"/>
+      <c r="F88" s="167"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="164"/>
+      <c r="C90" s="164"/>
+      <c r="D90" s="164"/>
+      <c r="E90" s="164"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="170"/>
+      <c r="C91" s="170"/>
+      <c r="D91" s="170"/>
+      <c r="E91" s="170"/>
+      <c r="F91" s="170"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="161"/>
+      <c r="C93" s="162"/>
+      <c r="D93" s="162"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5833,791 +7564,6 @@
     <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{5057C1A9-191C-459D-8FE9-547B78B580AD}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD72DD7-CC4D-41A0-B7AC-A996819BD9F0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F95"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:D70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164"/>
-      <c r="F30" s="164"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="163"/>
-      <c r="C33" s="163"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="163" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="163"/>
-      <c r="D34" s="163"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="163"/>
-      <c r="C35" s="163"/>
-      <c r="D35" s="163"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="163" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="163"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="163"/>
-      <c r="C37" s="163"/>
-      <c r="D37" s="163"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="163" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="163"/>
-      <c r="D38" s="163"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="163"/>
-      <c r="C39" s="163"/>
-      <c r="D39" s="163"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="163" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="163"/>
-      <c r="D40" s="163"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="163"/>
-      <c r="C41" s="163"/>
-      <c r="D41" s="163"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="163" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="163"/>
-      <c r="D42" s="163"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="163"/>
-      <c r="C43" s="163"/>
-      <c r="D43" s="163"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="163"/>
-      <c r="C44" s="163"/>
-      <c r="D44" s="163"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="163"/>
-      <c r="C45" s="163"/>
-      <c r="D45" s="163"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="163"/>
-      <c r="C46" s="163"/>
-      <c r="D46" s="163"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="163"/>
-      <c r="C47" s="163"/>
-      <c r="D47" s="163"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="163"/>
-      <c r="C48" s="163"/>
-      <c r="D48" s="163"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="163"/>
-      <c r="C49" s="163"/>
-      <c r="D49" s="163"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="163"/>
-      <c r="C50" s="163"/>
-      <c r="D50" s="163"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="163"/>
-      <c r="C51" s="163"/>
-      <c r="D51" s="163"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="163"/>
-      <c r="C52" s="163"/>
-      <c r="D52" s="163"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="163"/>
-      <c r="C53" s="163"/>
-      <c r="D53" s="163"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="163"/>
-      <c r="C54" s="163"/>
-      <c r="D54" s="163"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="163"/>
-      <c r="C55" s="163"/>
-      <c r="D55" s="163"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="163"/>
-      <c r="C56" s="163"/>
-      <c r="D56" s="163"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="163"/>
-      <c r="C57" s="163"/>
-      <c r="D57" s="163"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="163"/>
-      <c r="C58" s="163"/>
-      <c r="D58" s="163"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="163"/>
-      <c r="C59" s="163"/>
-      <c r="D59" s="163"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="163"/>
-      <c r="C60" s="163"/>
-      <c r="D60" s="163"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="163"/>
-      <c r="C61" s="163"/>
-      <c r="D61" s="163"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="163"/>
-      <c r="C62" s="163"/>
-      <c r="D62" s="163"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="163"/>
-      <c r="C63" s="163"/>
-      <c r="D63" s="163"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="163"/>
-      <c r="C64" s="163"/>
-      <c r="D64" s="163"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="163"/>
-      <c r="C65" s="163"/>
-      <c r="D65" s="163"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="163"/>
-      <c r="C66" s="163"/>
-      <c r="D66" s="163"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="163"/>
-      <c r="C67" s="163"/>
-      <c r="D67" s="163"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="46"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="51">
-        <v>23.75</v>
-      </c>
-      <c r="D69" s="52">
-        <v>350</v>
-      </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="46"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="163"/>
-      <c r="C70" s="163"/>
-      <c r="D70" s="163"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="163"/>
-      <c r="C71" s="163"/>
-      <c r="D71" s="163"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>D69*C69</f>
-        <v>8312.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="30">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="30">
-        <v>0</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="29">
-        <f>SUM(E72:E74)</f>
-        <v>8312.5</v>
-      </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="35">
-        <f>ROUND(E75*C76,2)</f>
-        <v>415.63</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="43">
-        <f>ROUND(E75*C77,2)</f>
-        <v>829.17</v>
-      </c>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="33">
-        <f>SUM(E75:E77)</f>
-        <v>9557.2999999999993</v>
-      </c>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="165"/>
-      <c r="C80" s="165"/>
-      <c r="D80" s="165"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="170" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
-      <c r="E81" s="36">
-        <v>0</v>
-      </c>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="165"/>
-      <c r="C82" s="165"/>
-      <c r="D82" s="165"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39">
-        <f>E79-E81</f>
-        <v>9557.2999999999993</v>
-      </c>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="168"/>
-      <c r="C86" s="168"/>
-      <c r="D86" s="168"/>
-      <c r="E86" s="168"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="162" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="162"/>
-      <c r="C87" s="162"/>
-      <c r="D87" s="162"/>
-      <c r="E87" s="162"/>
-      <c r="F87" s="162"/>
-    </row>
-    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="171" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" s="171"/>
-      <c r="C88" s="171"/>
-      <c r="D88" s="171"/>
-      <c r="E88" s="171"/>
-      <c r="F88" s="171"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
-      <c r="B90" s="169"/>
-      <c r="C90" s="169"/>
-      <c r="D90" s="169"/>
-      <c r="E90" s="169"/>
-      <c r="F90" s="21"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="161" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="161"/>
-      <c r="C91" s="161"/>
-      <c r="D91" s="161"/>
-      <c r="E91" s="161"/>
-      <c r="F91" s="161"/>
-    </row>
-    <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="166"/>
-      <c r="C93" s="167"/>
-      <c r="D93" s="167"/>
-    </row>
-    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B93:D93"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{F33BCA02-C133-4942-920F-660677FF5144}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -7831,14 +8777,14 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="161" t="s">
+      <c r="A88" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="161"/>
-      <c r="C88" s="161"/>
-      <c r="D88" s="161"/>
-      <c r="E88" s="161"/>
-      <c r="F88" s="161"/>
+      <c r="B88" s="170"/>
+      <c r="C88" s="170"/>
+      <c r="D88" s="170"/>
+      <c r="E88" s="170"/>
+      <c r="F88" s="170"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
@@ -8139,13 +9085,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -8610,10 +9556,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="186" t="s">
+      <c r="B81" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="187"/>
+      <c r="C81" s="188"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
         <v>2012.06</v>
@@ -8673,14 +9619,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="188" t="s">
+      <c r="A88" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="188"/>
-      <c r="C88" s="188"/>
-      <c r="D88" s="188"/>
-      <c r="E88" s="188"/>
-      <c r="F88" s="188"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="185"/>
+      <c r="D88" s="185"/>
+      <c r="E88" s="185"/>
+      <c r="F88" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -8705,7 +9651,7 @@
   </sheetPr>
   <dimension ref="A1:F88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:F88"/>
     </sheetView>
   </sheetViews>
@@ -8966,13 +9912,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="185" t="s">
+      <c r="A30" s="186" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="185"/>
-      <c r="C30" s="185"/>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
+      <c r="B30" s="186"/>
+      <c r="C30" s="186"/>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9449,10 +10395,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="186" t="s">
+      <c r="B81" s="187" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="187"/>
+      <c r="C81" s="188"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
         <v>12417.3</v>
@@ -9512,23 +10458,23 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="188" t="s">
+      <c r="A88" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="188"/>
-      <c r="C88" s="188"/>
-      <c r="D88" s="188"/>
-      <c r="E88" s="188"/>
-      <c r="F88" s="188"/>
+      <c r="B88" s="185"/>
+      <c r="C88" s="185"/>
+      <c r="D88" s="185"/>
+      <c r="E88" s="185"/>
+      <c r="F88" s="185"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="B81:C81"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="A84:E84"/>
     <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A88:F88"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/Factures_Excel/1731 - Les Toitures C.B.C. Inc..xlsx
+++ b/Factures_Excel/1731 - Les Toitures C.B.C. Inc..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Administration\APP\GCF\Factures_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A797DDF-A6DB-41FF-BFEF-405F59162CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B4E449-B9AC-44FB-9495-FC2EB023A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="19-02-24" sheetId="4" r:id="rId1"/>
@@ -23,9 +23,10 @@
     <sheet name="2024-11-16 - 24-24630" sheetId="11" r:id="rId8"/>
     <sheet name="2025-03-01 - 25-24755" sheetId="12" r:id="rId9"/>
     <sheet name="2025-04-03 - 25-24889" sheetId="13" r:id="rId10"/>
+    <sheet name="2025-05-18 - 25-24992" sheetId="14" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <definedNames>
     <definedName name="dnrServices">OFFSET([1]Admin!$Z$11,,,COUNTA([1]Admin!$Z:$Z)-1,1)</definedName>
@@ -42,6 +43,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="7">'2024-11-16 - 24-24630'!$A$1:$F$89</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'2025-03-01 - 25-24755'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'2025-04-03 - 25-24889'!$A$1:$F$88</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'2025-05-18 - 25-24992'!$A$1:$F$88</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'26-05-24'!$A$1:$F$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'28-07-24'!$A$1:$F$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">Activités!$A$1:$D$48</definedName>
@@ -63,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="145">
   <si>
     <t>NOTE D'HONORAIRES</t>
   </si>
@@ -481,6 +483,24 @@
   </si>
   <si>
     <t xml:space="preserve">   - </t>
+  </si>
+  <si>
+    <t>Le 18 MAI 2025</t>
+  </si>
+  <si>
+    <t>25-24992</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Travail en lien avec les tableaux de détermination de juste valeur marchande des différentes entités du groupe ;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Préparation de tableaux de capital actions modifiés avec les nouvelles valeurs;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Analyse, réflexions et recherches fiscales permettant de déterminer le plan d'action fiscal optimal;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Modifications à l'organigramme corporatif après opérations;</t>
   </si>
 </sst>
 </file>
@@ -1453,6 +1473,24 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1465,27 +1503,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1536,9 +1559,6 @@
     </xf>
     <xf numFmtId="0" fontId="48" fillId="3" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="24" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1682,6 +1702,72 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>210062</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10241" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C5A87AE-E2CA-8C62-2017-9EE3B0C586EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1" y="0"/>
+          <a:ext cx="11678161" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2911,14 +2997,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -2939,283 +3025,283 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="164" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165"/>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="B36" s="164"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165" t="s">
+      <c r="B37" s="164" t="s">
         <v>51</v>
       </c>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165"/>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165"/>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165" t="s">
+      <c r="B41" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165"/>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="164" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="164" t="s">
         <v>65</v>
       </c>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165" t="s">
+      <c r="B47" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165" t="s">
+      <c r="B49" s="164" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165" t="s">
+      <c r="B51" s="164" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165" t="s">
+      <c r="B53" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165" t="s">
+      <c r="B55" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165" t="s">
+      <c r="B57" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165" t="s">
+      <c r="B59" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
@@ -3245,17 +3331,17 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21"/>
-      <c r="B68" s="165"/>
-      <c r="C68" s="165"/>
-      <c r="D68" s="165"/>
+      <c r="B68" s="164"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="164"/>
       <c r="E68" s="28"/>
       <c r="F68" s="21"/>
     </row>
@@ -3362,19 +3448,19 @@
     </row>
     <row r="77" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21"/>
-      <c r="B77" s="169"/>
-      <c r="C77" s="169"/>
-      <c r="D77" s="169"/>
+      <c r="B77" s="166"/>
+      <c r="C77" s="166"/>
+      <c r="D77" s="166"/>
       <c r="E77" s="36"/>
       <c r="F77" s="21"/>
     </row>
     <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A78" s="21"/>
-      <c r="B78" s="166" t="s">
+      <c r="B78" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C78" s="166"/>
-      <c r="D78" s="166"/>
+      <c r="C78" s="171"/>
+      <c r="D78" s="171"/>
       <c r="E78" s="36">
         <v>0</v>
       </c>
@@ -3382,9 +3468,9 @@
     </row>
     <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A79" s="21"/>
-      <c r="B79" s="169"/>
-      <c r="C79" s="169"/>
-      <c r="D79" s="169"/>
+      <c r="B79" s="166"/>
+      <c r="C79" s="166"/>
+      <c r="D79" s="166"/>
       <c r="E79" s="36"/>
       <c r="F79" s="21"/>
     </row>
@@ -3419,31 +3505,31 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="21"/>
-      <c r="B83" s="163"/>
-      <c r="C83" s="163"/>
-      <c r="D83" s="163"/>
-      <c r="E83" s="163"/>
+      <c r="B83" s="169"/>
+      <c r="C83" s="169"/>
+      <c r="D83" s="169"/>
+      <c r="E83" s="169"/>
       <c r="F83" s="21"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="171" t="s">
+      <c r="A84" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="171"/>
-      <c r="C84" s="171"/>
-      <c r="D84" s="171"/>
-      <c r="E84" s="171"/>
-      <c r="F84" s="171"/>
+      <c r="B84" s="163"/>
+      <c r="C84" s="163"/>
+      <c r="D84" s="163"/>
+      <c r="E84" s="163"/>
+      <c r="F84" s="163"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="167" t="s">
+      <c r="A85" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="167"/>
-      <c r="C85" s="167"/>
-      <c r="D85" s="167"/>
-      <c r="E85" s="167"/>
-      <c r="F85" s="167"/>
+      <c r="B85" s="172"/>
+      <c r="C85" s="172"/>
+      <c r="D85" s="172"/>
+      <c r="E85" s="172"/>
+      <c r="F85" s="172"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
@@ -3455,26 +3541,26 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="21"/>
-      <c r="B87" s="164"/>
-      <c r="C87" s="164"/>
-      <c r="D87" s="164"/>
-      <c r="E87" s="164"/>
+      <c r="B87" s="170"/>
+      <c r="C87" s="170"/>
+      <c r="D87" s="170"/>
+      <c r="E87" s="170"/>
       <c r="F87" s="21"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="170" t="s">
+      <c r="A88" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="170"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
+      <c r="B88" s="162"/>
+      <c r="C88" s="162"/>
+      <c r="D88" s="162"/>
+      <c r="E88" s="162"/>
+      <c r="F88" s="162"/>
     </row>
     <row r="90" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="161"/>
-      <c r="C90" s="162"/>
-      <c r="D90" s="162"/>
+      <c r="B90" s="167"/>
+      <c r="C90" s="168"/>
+      <c r="D90" s="168"/>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -3484,34 +3570,6 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B79:D79"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B77:D77"/>
-    <mergeCell ref="B55:D55"/>
     <mergeCell ref="B90:D90"/>
     <mergeCell ref="B83:E83"/>
     <mergeCell ref="B87:E87"/>
@@ -3528,6 +3586,34 @@
     <mergeCell ref="B45:D45"/>
     <mergeCell ref="B78:D78"/>
     <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B77:D77"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B53:D53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
@@ -3545,6 +3631,851 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7785825A-F2FE-4029-9BF7-D09DF1F2C4D8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F88"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+    </row>
+    <row r="2" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+    </row>
+    <row r="3" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+    </row>
+    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+    </row>
+    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+    </row>
+    <row r="16" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+    </row>
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="62"/>
+      <c r="B21" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="61"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="59" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+    </row>
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="59"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F28" s="67"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="136"/>
+      <c r="B29" s="136"/>
+      <c r="C29" s="136"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="138"/>
+      <c r="F29" s="138"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
+      <c r="F30" s="139"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="140"/>
+      <c r="B31" s="140"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="78"/>
+      <c r="B32" s="115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="141"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="93"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="78"/>
+      <c r="B34" s="143" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="144"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="78"/>
+      <c r="B35" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="146"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="145"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="78"/>
+      <c r="B36" s="143" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="144"/>
+      <c r="D36" s="145"/>
+      <c r="E36" s="145"/>
+      <c r="F36" s="145"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="78"/>
+      <c r="B37" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="144"/>
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="145"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="78"/>
+      <c r="B38" s="143" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="144"/>
+      <c r="D38" s="145"/>
+      <c r="E38" s="145"/>
+      <c r="F38" s="145"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78"/>
+      <c r="B39" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="144"/>
+      <c r="D39" s="145"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="145"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="78"/>
+      <c r="B40" s="143" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="146"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="78"/>
+      <c r="B41" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="144"/>
+      <c r="D41" s="145"/>
+      <c r="E41" s="145"/>
+      <c r="F41" s="145"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78"/>
+      <c r="B42" s="143" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="144"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="145"/>
+      <c r="F42" s="145"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="78"/>
+      <c r="B43" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="144"/>
+      <c r="D43" s="145"/>
+      <c r="E43" s="145"/>
+      <c r="F43" s="145"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="78"/>
+      <c r="B44" s="143" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="144"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="145"/>
+      <c r="F44" s="145"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="78"/>
+      <c r="B45" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="144"/>
+      <c r="D45" s="145"/>
+      <c r="E45" s="145"/>
+      <c r="F45" s="145"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="78"/>
+      <c r="B46" s="143" t="s">
+        <v>137</v>
+      </c>
+      <c r="C46" s="144"/>
+      <c r="D46" s="145"/>
+      <c r="E46" s="145"/>
+      <c r="F46" s="145"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="78"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="145"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="145"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="145"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="145"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="78"/>
+      <c r="B49" s="143"/>
+      <c r="C49" s="144"/>
+      <c r="D49" s="145"/>
+      <c r="E49" s="145"/>
+      <c r="F49" s="145"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="78"/>
+      <c r="B50" s="143"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="145"/>
+      <c r="F50" s="145"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="78"/>
+      <c r="B51" s="143"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="145"/>
+      <c r="E51" s="145"/>
+      <c r="F51" s="145"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="78"/>
+      <c r="B52" s="143"/>
+      <c r="C52" s="144"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="78"/>
+      <c r="B53" s="143"/>
+      <c r="C53" s="144"/>
+      <c r="D53" s="145"/>
+      <c r="E53" s="145"/>
+      <c r="F53" s="145"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="143"/>
+      <c r="C54" s="144"/>
+      <c r="D54" s="145"/>
+      <c r="E54" s="145"/>
+      <c r="F54" s="145"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="78"/>
+      <c r="B55" s="143"/>
+      <c r="C55" s="144"/>
+      <c r="D55" s="145"/>
+      <c r="E55" s="145"/>
+      <c r="F55" s="145"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="78"/>
+      <c r="B56" s="143"/>
+      <c r="C56" s="144"/>
+      <c r="D56" s="145"/>
+      <c r="E56" s="145"/>
+      <c r="F56" s="145"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="78"/>
+      <c r="B57" s="143" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="144"/>
+      <c r="D57" s="145"/>
+      <c r="E57" s="145"/>
+      <c r="F57" s="145"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="78"/>
+      <c r="B58" s="143"/>
+      <c r="C58" s="144"/>
+      <c r="D58" s="145"/>
+      <c r="E58" s="145"/>
+      <c r="F58" s="145"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="78"/>
+      <c r="B59" s="143"/>
+      <c r="C59" s="144"/>
+      <c r="D59" s="145"/>
+      <c r="E59" s="145"/>
+      <c r="F59" s="145"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="78"/>
+      <c r="B60" s="143"/>
+      <c r="C60" s="144"/>
+      <c r="D60" s="145"/>
+      <c r="E60" s="145"/>
+      <c r="F60" s="145"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="78"/>
+      <c r="B61" s="143"/>
+      <c r="C61" s="144"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="78"/>
+      <c r="B62" s="143"/>
+      <c r="C62" s="144"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="78"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="148"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="145"/>
+      <c r="F63" s="145"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="78"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="92"/>
+      <c r="D64" s="93"/>
+      <c r="E64" s="145"/>
+      <c r="F64" s="145"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="78"/>
+      <c r="B65" s="143"/>
+      <c r="C65" s="150" t="s">
+        <v>37</v>
+      </c>
+      <c r="D65" s="151" t="s">
+        <v>38</v>
+      </c>
+      <c r="E65" s="145"/>
+      <c r="F65" s="145"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="78"/>
+      <c r="B66" s="143"/>
+      <c r="C66" s="152">
+        <v>45</v>
+      </c>
+      <c r="D66" s="153">
+        <v>385</v>
+      </c>
+      <c r="E66" s="154"/>
+      <c r="F66" s="154"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="78"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="152"/>
+      <c r="D67" s="153"/>
+      <c r="E67" s="145"/>
+      <c r="F67" s="145"/>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="78"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="78"/>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="102" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69" s="102"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="103">
+        <v>17325</v>
+      </c>
+      <c r="F69" s="103"/>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="106"/>
+      <c r="D70" s="60"/>
+      <c r="E70" s="107">
+        <v>20</v>
+      </c>
+      <c r="F70" s="107"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="157" t="s">
+        <v>116</v>
+      </c>
+      <c r="C71" s="106"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="107">
+        <v>0</v>
+      </c>
+      <c r="F71" s="107"/>
+    </row>
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="62"/>
+      <c r="B72" s="157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="106"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="107">
+        <v>0</v>
+      </c>
+      <c r="F72" s="107"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="62"/>
+      <c r="B73" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="102"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="109">
+        <v>17345</v>
+      </c>
+      <c r="F73" s="109"/>
+    </row>
+    <row r="74" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="110">
+        <v>0.05</v>
+      </c>
+      <c r="D74" s="106"/>
+      <c r="E74" s="111">
+        <v>867.25</v>
+      </c>
+      <c r="F74" s="111"/>
+    </row>
+    <row r="75" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="112" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="113">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D75" s="106"/>
+      <c r="E75" s="114">
+        <v>1730.16</v>
+      </c>
+      <c r="F75" s="111"/>
+    </row>
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="115"/>
+      <c r="C76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="61"/>
+      <c r="F76" s="61"/>
+    </row>
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="62"/>
+      <c r="B77" s="117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" s="102"/>
+      <c r="D77" s="118"/>
+      <c r="E77" s="119">
+        <v>19942.41</v>
+      </c>
+      <c r="F77" s="120"/>
+    </row>
+    <row r="78" spans="1:6" ht="15.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="62"/>
+      <c r="B78" s="112"/>
+      <c r="C78" s="112"/>
+      <c r="D78" s="112"/>
+      <c r="E78" s="121"/>
+      <c r="F78" s="112"/>
+    </row>
+    <row r="79" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="62"/>
+      <c r="B79" s="115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C79" s="112"/>
+      <c r="D79" s="60"/>
+      <c r="E79" s="61">
+        <v>0</v>
+      </c>
+      <c r="F79" s="61"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="62"/>
+      <c r="B80" s="102"/>
+      <c r="C80" s="112"/>
+      <c r="D80" s="112"/>
+      <c r="E80" s="121"/>
+      <c r="F80" s="112"/>
+    </row>
+    <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="62"/>
+      <c r="B81" s="188" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="189"/>
+      <c r="D81" s="158"/>
+      <c r="E81" s="159">
+        <v>19942.41</v>
+      </c>
+      <c r="F81" s="61"/>
+    </row>
+    <row r="82" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="62"/>
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="61"/>
+      <c r="F82" s="61"/>
+    </row>
+    <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="130"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
+      <c r="F83" s="160"/>
+    </row>
+    <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="182" t="s">
+        <v>29</v>
+      </c>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
+      <c r="F84" s="115"/>
+    </row>
+    <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="184" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
+      <c r="F85" s="46"/>
+    </row>
+    <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="132"/>
+      <c r="B86" s="132"/>
+      <c r="C86" s="132"/>
+      <c r="D86" s="132"/>
+      <c r="E86" s="132"/>
+      <c r="F86" s="46"/>
+    </row>
+    <row r="87" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="132"/>
+      <c r="B87" s="132"/>
+      <c r="C87" s="132"/>
+      <c r="D87" s="132"/>
+      <c r="E87" s="132"/>
+      <c r="F87" s="46"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="119" scale="63" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96195181-11F2-4259-A801-97EA6C552659}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3632,7 +4563,7 @@
       <c r="A9" s="54"/>
       <c r="B9" s="54"/>
       <c r="C9" s="54"/>
-      <c r="D9" s="189"/>
+      <c r="D9" s="161"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
     </row>
@@ -3727,7 +4658,7 @@
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="62"/>
       <c r="B21" s="59" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="60"/>
@@ -3798,7 +4729,7 @@
         <v>11</v>
       </c>
       <c r="E28" s="67" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F28" s="67"/>
     </row>
@@ -3811,13 +4742,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3849,7 +4780,7 @@
     <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78"/>
       <c r="B34" s="143" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C34" s="144"/>
       <c r="D34" s="145"/>
@@ -3869,7 +4800,7 @@
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78"/>
       <c r="B36" s="143" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C36" s="144"/>
       <c r="D36" s="145"/>
@@ -3889,7 +4820,7 @@
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="78"/>
       <c r="B38" s="143" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C38" s="144"/>
       <c r="D38" s="145"/>
@@ -3909,7 +4840,7 @@
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="78"/>
       <c r="B40" s="143" t="s">
-        <v>39</v>
+        <v>108</v>
       </c>
       <c r="C40" s="146"/>
       <c r="D40" s="145"/>
@@ -3929,7 +4860,7 @@
     <row r="42" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="78"/>
       <c r="B42" s="143" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
       <c r="C42" s="144"/>
       <c r="D42" s="145"/>
@@ -3949,7 +4880,7 @@
     <row r="44" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="78"/>
       <c r="B44" s="143" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="C44" s="144"/>
       <c r="D44" s="145"/>
@@ -3969,7 +4900,7 @@
     <row r="46" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="78"/>
       <c r="B46" s="143" t="s">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="C46" s="144"/>
       <c r="D46" s="145"/>
@@ -3978,7 +4909,9 @@
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="78"/>
-      <c r="B47" s="143"/>
+      <c r="B47" s="143" t="s">
+        <v>121</v>
+      </c>
       <c r="C47" s="144"/>
       <c r="D47" s="145"/>
       <c r="E47" s="145"/>
@@ -3986,7 +4919,9 @@
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="78"/>
-      <c r="B48" s="143"/>
+      <c r="B48" s="143" t="s">
+        <v>9</v>
+      </c>
       <c r="C48" s="144"/>
       <c r="D48" s="145"/>
       <c r="E48" s="145"/>
@@ -3994,7 +4929,9 @@
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="78"/>
-      <c r="B49" s="143"/>
+      <c r="B49" s="143" t="s">
+        <v>121</v>
+      </c>
       <c r="C49" s="144"/>
       <c r="D49" s="145"/>
       <c r="E49" s="145"/>
@@ -4002,7 +4939,9 @@
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="78"/>
-      <c r="B50" s="143"/>
+      <c r="B50" s="143" t="s">
+        <v>33</v>
+      </c>
       <c r="C50" s="147"/>
       <c r="D50" s="147"/>
       <c r="E50" s="145"/>
@@ -4010,7 +4949,9 @@
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="78"/>
-      <c r="B51" s="143"/>
+      <c r="B51" s="143" t="s">
+        <v>121</v>
+      </c>
       <c r="C51" s="144"/>
       <c r="D51" s="145"/>
       <c r="E51" s="145"/>
@@ -4018,7 +4959,9 @@
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="78"/>
-      <c r="B52" s="143"/>
+      <c r="B52" s="143" t="s">
+        <v>130</v>
+      </c>
       <c r="C52" s="144"/>
       <c r="D52" s="145"/>
       <c r="E52" s="145"/>
@@ -4026,7 +4969,9 @@
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="78"/>
-      <c r="B53" s="143"/>
+      <c r="B53" s="143" t="s">
+        <v>121</v>
+      </c>
       <c r="C53" s="144"/>
       <c r="D53" s="145"/>
       <c r="E53" s="145"/>
@@ -4034,7 +4979,9 @@
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="78"/>
-      <c r="B54" s="143"/>
+      <c r="B54" s="143" t="s">
+        <v>39</v>
+      </c>
       <c r="C54" s="144"/>
       <c r="D54" s="145"/>
       <c r="E54" s="145"/>
@@ -4058,9 +5005,7 @@
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="78"/>
-      <c r="B57" s="143" t="s">
-        <v>138</v>
-      </c>
+      <c r="B57" s="143"/>
       <c r="C57" s="144"/>
       <c r="D57" s="145"/>
       <c r="E57" s="145"/>
@@ -4108,7 +5053,7 @@
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="78"/>
-      <c r="B63" s="155"/>
+      <c r="B63" s="143"/>
       <c r="C63" s="148"/>
       <c r="D63" s="149"/>
       <c r="E63" s="145"/>
@@ -4116,7 +5061,7 @@
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="78"/>
-      <c r="B64" s="155"/>
+      <c r="B64" s="143"/>
       <c r="C64" s="92"/>
       <c r="D64" s="93"/>
       <c r="E64" s="145"/>
@@ -4138,7 +5083,7 @@
       <c r="A66" s="78"/>
       <c r="B66" s="143"/>
       <c r="C66" s="152">
-        <v>45</v>
+        <v>24.5</v>
       </c>
       <c r="D66" s="153">
         <v>385</v>
@@ -4148,7 +5093,7 @@
     </row>
     <row r="67" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="78"/>
-      <c r="B67" s="155"/>
+      <c r="B67" s="143"/>
       <c r="C67" s="152"/>
       <c r="D67" s="153"/>
       <c r="E67" s="145"/>
@@ -4156,7 +5101,7 @@
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="78"/>
-      <c r="B68" s="155"/>
+      <c r="B68" s="143"/>
       <c r="C68" s="156"/>
       <c r="D68" s="156"/>
       <c r="E68" s="156"/>
@@ -4170,7 +5115,7 @@
       <c r="C69" s="102"/>
       <c r="D69" s="60"/>
       <c r="E69" s="103">
-        <v>17325</v>
+        <v>9432.5</v>
       </c>
       <c r="F69" s="103"/>
     </row>
@@ -4182,7 +5127,7 @@
       <c r="C70" s="106"/>
       <c r="D70" s="60"/>
       <c r="E70" s="107">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F70" s="107"/>
     </row>
@@ -4218,7 +5163,7 @@
       <c r="C73" s="102"/>
       <c r="D73" s="60"/>
       <c r="E73" s="109">
-        <v>17345</v>
+        <v>9432.5</v>
       </c>
       <c r="F73" s="109"/>
     </row>
@@ -4232,7 +5177,7 @@
       </c>
       <c r="D74" s="106"/>
       <c r="E74" s="111">
-        <v>867.25</v>
+        <v>471.63</v>
       </c>
       <c r="F74" s="111"/>
     </row>
@@ -4246,7 +5191,7 @@
       </c>
       <c r="D75" s="106"/>
       <c r="E75" s="114">
-        <v>1730.16</v>
+        <v>940.89</v>
       </c>
       <c r="F75" s="111"/>
     </row>
@@ -4266,7 +5211,7 @@
       <c r="C77" s="102"/>
       <c r="D77" s="118"/>
       <c r="E77" s="119">
-        <v>19942.41</v>
+        <v>10845.019999999999</v>
       </c>
       <c r="F77" s="120"/>
     </row>
@@ -4300,13 +5245,13 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="187" t="s">
+      <c r="B81" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="188"/>
+      <c r="C81" s="189"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
-        <v>19942.41</v>
+        <v>10845.019999999999</v>
       </c>
       <c r="F81" s="61"/>
     </row>
@@ -4320,30 +5265,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="160"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4363,14 +5308,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="185" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="185"/>
-      <c r="C88" s="185"/>
-      <c r="D88" s="185"/>
-      <c r="E88" s="185"/>
-      <c r="F88" s="185"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -4531,14 +5476,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -4559,313 +5504,313 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>80</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="164" t="s">
         <v>31</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165" t="s">
+      <c r="B56" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165" t="s">
+      <c r="B60" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165" t="s">
+      <c r="B62" s="164" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165" t="s">
+      <c r="B64" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -4895,17 +5840,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -5012,19 +5957,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
+      <c r="B80" s="166"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="166" t="s">
+      <c r="B81" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="166"/>
-      <c r="D81" s="166"/>
+      <c r="C81" s="171"/>
+      <c r="D81" s="171"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -5032,9 +5977,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="169"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="169"/>
+      <c r="B82" s="166"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="166"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -5069,31 +6014,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="163"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="163"/>
-      <c r="E86" s="163"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="171" t="s">
+      <c r="A87" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="171"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="167" t="s">
+      <c r="A88" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="167"/>
-      <c r="C88" s="167"/>
-      <c r="D88" s="167"/>
-      <c r="E88" s="167"/>
-      <c r="F88" s="167"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -5105,26 +6050,26 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="164"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
-      <c r="E90" s="164"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="170" t="s">
+      <c r="A91" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
-      <c r="E91" s="170"/>
-      <c r="F91" s="170"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="162"/>
+      <c r="E91" s="162"/>
+      <c r="F91" s="162"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="161"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="162"/>
+      <c r="B93" s="167"/>
+      <c r="C93" s="168"/>
+      <c r="D93" s="168"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5134,6 +6079,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="B93:D93"/>
     <mergeCell ref="B62:D62"/>
@@ -5150,37 +6126,6 @@
     <mergeCell ref="B67:D67"/>
     <mergeCell ref="B70:D70"/>
     <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{02070597-8102-49B8-84BD-FCDFBFE81EFC}">
@@ -5338,14 +6283,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -5366,305 +6311,305 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>33</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165" t="s">
+      <c r="B56" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -5694,17 +6639,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -5811,19 +6756,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
+      <c r="B80" s="166"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="166" t="s">
+      <c r="B81" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="166"/>
-      <c r="D81" s="166"/>
+      <c r="C81" s="171"/>
+      <c r="D81" s="171"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -5831,9 +6776,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="169"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="169"/>
+      <c r="B82" s="166"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="166"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -5868,31 +6813,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="163"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="163"/>
-      <c r="E86" s="163"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="171" t="s">
+      <c r="A87" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="171"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="167" t="s">
+      <c r="A88" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="167"/>
-      <c r="C88" s="167"/>
-      <c r="D88" s="167"/>
-      <c r="E88" s="167"/>
-      <c r="F88" s="167"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -5904,26 +6849,26 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="164"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
-      <c r="E90" s="164"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="170" t="s">
+      <c r="A91" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
-      <c r="E91" s="170"/>
-      <c r="F91" s="170"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="162"/>
+      <c r="E91" s="162"/>
+      <c r="F91" s="162"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="161"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="162"/>
+      <c r="B93" s="167"/>
+      <c r="C93" s="168"/>
+      <c r="D93" s="168"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -5933,21 +6878,22 @@
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B80:D80"/>
     <mergeCell ref="B81:D81"/>
     <mergeCell ref="B82:D82"/>
     <mergeCell ref="B60:D60"/>
@@ -5964,22 +6910,21 @@
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="B48:D48"/>
     <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B37:D37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B56 B57:B71" xr:uid="{E7D5C41C-BF93-417A-AB6E-E1DD34419DBC}">
@@ -6137,14 +7082,14 @@
       <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
+      <c r="A30" s="165" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
@@ -6165,303 +7110,303 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
       <c r="E33" s="28"/>
       <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
+      <c r="B34" s="164" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
       <c r="E34" s="28"/>
       <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
       <c r="E35" s="28"/>
       <c r="F35" s="21"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
+      <c r="B36" s="164" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
       <c r="E36" s="28"/>
       <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
       <c r="E37" s="28"/>
       <c r="F37" s="21"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
+      <c r="B38" s="164" t="s">
         <v>93</v>
       </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
       <c r="E38" s="28"/>
       <c r="F38" s="21"/>
     </row>
     <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
       <c r="E39" s="28"/>
       <c r="F39" s="21"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
+      <c r="B40" s="164" t="s">
         <v>94</v>
       </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
       <c r="E40" s="28"/>
       <c r="F40" s="21"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
       <c r="E41" s="28"/>
       <c r="F41" s="21"/>
     </row>
     <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
+      <c r="B42" s="164" t="s">
         <v>32</v>
       </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
       <c r="E42" s="28"/>
       <c r="F42" s="21"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
       <c r="E43" s="28"/>
       <c r="F43" s="21"/>
     </row>
     <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A44" s="21"/>
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="164" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
       <c r="E44" s="28"/>
       <c r="F44" s="21"/>
     </row>
     <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
       <c r="E45" s="28"/>
       <c r="F45" s="21"/>
     </row>
     <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A46" s="21"/>
-      <c r="B46" s="165" t="s">
+      <c r="B46" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
       <c r="E46" s="28"/>
       <c r="F46" s="21"/>
     </row>
     <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
       <c r="E47" s="28"/>
       <c r="F47" s="21"/>
     </row>
     <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A48" s="21"/>
-      <c r="B48" s="165" t="s">
+      <c r="B48" s="164" t="s">
         <v>96</v>
       </c>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
       <c r="E48" s="28"/>
       <c r="F48" s="21"/>
     </row>
     <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
       <c r="E49" s="28"/>
       <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A50" s="21"/>
-      <c r="B50" s="165" t="s">
+      <c r="B50" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
       <c r="E50" s="28"/>
       <c r="F50" s="21"/>
     </row>
     <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
       <c r="E51" s="28"/>
       <c r="F51" s="21"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A52" s="21"/>
-      <c r="B52" s="165" t="s">
+      <c r="B52" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
       <c r="E52" s="28"/>
       <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
       <c r="E53" s="28"/>
       <c r="F53" s="21"/>
     </row>
     <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A54" s="21"/>
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
       <c r="E54" s="28"/>
       <c r="F54" s="21"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
       <c r="E55" s="28"/>
       <c r="F55" s="21"/>
     </row>
     <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="21"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
       <c r="E56" s="28"/>
       <c r="F56" s="21"/>
     </row>
     <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
       <c r="E57" s="28"/>
       <c r="F57" s="21"/>
     </row>
     <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
       <c r="E58" s="28"/>
       <c r="F58" s="21"/>
     </row>
     <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
       <c r="E59" s="28"/>
       <c r="F59" s="21"/>
     </row>
     <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
       <c r="E60" s="28"/>
       <c r="F60" s="21"/>
     </row>
     <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
       <c r="E61" s="28"/>
       <c r="F61" s="21"/>
     </row>
     <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
       <c r="E62" s="28"/>
       <c r="F62" s="21"/>
     </row>
     <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
       <c r="E63" s="28"/>
       <c r="F63" s="21"/>
     </row>
     <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A64" s="21"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
       <c r="E64" s="28"/>
       <c r="F64" s="21"/>
     </row>
     <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A65" s="21"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
       <c r="E65" s="28"/>
       <c r="F65" s="21"/>
     </row>
     <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
       <c r="E66" s="28"/>
       <c r="F66" s="21"/>
     </row>
     <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
       <c r="E67" s="28"/>
       <c r="F67" s="21"/>
     </row>
@@ -6491,17 +7436,17 @@
     </row>
     <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A70" s="21"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
       <c r="E70" s="28"/>
       <c r="F70" s="21"/>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
       <c r="E71" s="28"/>
       <c r="F71" s="21"/>
     </row>
@@ -6608,19 +7553,19 @@
     </row>
     <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
+      <c r="B80" s="166"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
       <c r="E80" s="36"/>
       <c r="F80" s="21"/>
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="21"/>
-      <c r="B81" s="166" t="s">
+      <c r="B81" s="171" t="s">
         <v>18</v>
       </c>
-      <c r="C81" s="166"/>
-      <c r="D81" s="166"/>
+      <c r="C81" s="171"/>
+      <c r="D81" s="171"/>
       <c r="E81" s="36">
         <v>0</v>
       </c>
@@ -6628,9 +7573,9 @@
     </row>
     <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A82" s="21"/>
-      <c r="B82" s="169"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="169"/>
+      <c r="B82" s="166"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="166"/>
       <c r="E82" s="36"/>
       <c r="F82" s="21"/>
     </row>
@@ -6665,31 +7610,31 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="21"/>
-      <c r="B86" s="163"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="163"/>
-      <c r="E86" s="163"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
       <c r="F86" s="21"/>
     </row>
     <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="171" t="s">
+      <c r="A87" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="B87" s="171"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
     </row>
     <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="167" t="s">
+      <c r="A88" s="172" t="s">
         <v>30</v>
       </c>
-      <c r="B88" s="167"/>
-      <c r="C88" s="167"/>
-      <c r="D88" s="167"/>
-      <c r="E88" s="167"/>
-      <c r="F88" s="167"/>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="21"/>
@@ -6701,26 +7646,811 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="21"/>
-      <c r="B90" s="164"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
-      <c r="E90" s="164"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
       <c r="F90" s="21"/>
     </row>
     <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="170" t="s">
+      <c r="A91" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
-      <c r="E91" s="170"/>
-      <c r="F91" s="170"/>
+      <c r="B91" s="162"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="162"/>
+      <c r="E91" s="162"/>
+      <c r="F91" s="162"/>
     </row>
     <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="161"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="162"/>
+      <c r="B93" s="167"/>
+      <c r="C93" s="168"/>
+      <c r="D93" s="168"/>
+    </row>
+    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="47">
+    <mergeCell ref="A87:F87"/>
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B63:D63"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="B80:D80"/>
+    <mergeCell ref="B81:D81"/>
+    <mergeCell ref="B82:D82"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B52:D52"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{5057C1A9-191C-459D-8FE9-547B78B580AD}">
+      <formula1>Liste_Activités</formula1>
+    </dataValidation>
+  </dataValidations>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD72DD7-CC4D-41A0-B7AC-A996819BD9F0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A12:F95"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="120" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="3"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="3"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B17" s="3"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="3"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+    </row>
+    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+    </row>
+    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="21"/>
+    </row>
+    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="21"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="20"/>
+    </row>
+    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="165"/>
+      <c r="C30" s="165"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="165"/>
+      <c r="F30" s="165"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="21"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="21"/>
+      <c r="B33" s="164"/>
+      <c r="C33" s="164"/>
+      <c r="D33" s="164"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="21"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="21"/>
+      <c r="B34" s="164" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="21"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="21"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="21"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="21"/>
+      <c r="B36" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="21"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="21"/>
+      <c r="B37" s="164"/>
+      <c r="C37" s="164"/>
+      <c r="D37" s="164"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="21"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="21"/>
+      <c r="B38" s="164" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="164"/>
+      <c r="D38" s="164"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="21"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="164"/>
+      <c r="D39" s="164"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="21"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="21"/>
+      <c r="B40" s="164" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="164"/>
+      <c r="D40" s="164"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="21"/>
+    </row>
+    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A41" s="21"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="164"/>
+      <c r="D41" s="164"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="21"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="21"/>
+      <c r="B42" s="164" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" s="164"/>
+      <c r="D42" s="164"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="21"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="164"/>
+      <c r="D43" s="164"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="21"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="21"/>
+      <c r="B44" s="164"/>
+      <c r="C44" s="164"/>
+      <c r="D44" s="164"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="21"/>
+      <c r="B45" s="164"/>
+      <c r="C45" s="164"/>
+      <c r="D45" s="164"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="21"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="21"/>
+      <c r="B46" s="164"/>
+      <c r="C46" s="164"/>
+      <c r="D46" s="164"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="21"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="21"/>
+      <c r="B47" s="164"/>
+      <c r="C47" s="164"/>
+      <c r="D47" s="164"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="21"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="21"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="21"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="21"/>
+      <c r="B49" s="164"/>
+      <c r="C49" s="164"/>
+      <c r="D49" s="164"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="21"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="21"/>
+      <c r="B50" s="164"/>
+      <c r="C50" s="164"/>
+      <c r="D50" s="164"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="21"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="21"/>
+      <c r="B51" s="164"/>
+      <c r="C51" s="164"/>
+      <c r="D51" s="164"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="21"/>
+      <c r="B52" s="164"/>
+      <c r="C52" s="164"/>
+      <c r="D52" s="164"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="21"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="21"/>
+      <c r="B53" s="164"/>
+      <c r="C53" s="164"/>
+      <c r="D53" s="164"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="21"/>
+    </row>
+    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A54" s="21"/>
+      <c r="B54" s="164"/>
+      <c r="C54" s="164"/>
+      <c r="D54" s="164"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="21"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="21"/>
+      <c r="B55" s="164"/>
+      <c r="C55" s="164"/>
+      <c r="D55" s="164"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="21"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="21"/>
+      <c r="B56" s="164"/>
+      <c r="C56" s="164"/>
+      <c r="D56" s="164"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="21"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="21"/>
+      <c r="B57" s="164"/>
+      <c r="C57" s="164"/>
+      <c r="D57" s="164"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="21"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="21"/>
+      <c r="B58" s="164"/>
+      <c r="C58" s="164"/>
+      <c r="D58" s="164"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="21"/>
+    </row>
+    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="21"/>
+      <c r="B59" s="164"/>
+      <c r="C59" s="164"/>
+      <c r="D59" s="164"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="21"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="21"/>
+      <c r="B60" s="164"/>
+      <c r="C60" s="164"/>
+      <c r="D60" s="164"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="21"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="21"/>
+      <c r="B61" s="164"/>
+      <c r="C61" s="164"/>
+      <c r="D61" s="164"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="21"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="21"/>
+      <c r="B62" s="164"/>
+      <c r="C62" s="164"/>
+      <c r="D62" s="164"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="21"/>
+      <c r="B63" s="164"/>
+      <c r="C63" s="164"/>
+      <c r="D63" s="164"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="21"/>
+    </row>
+    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A64" s="21"/>
+      <c r="B64" s="164"/>
+      <c r="C64" s="164"/>
+      <c r="D64" s="164"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="21"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="21"/>
+      <c r="B65" s="164"/>
+      <c r="C65" s="164"/>
+      <c r="D65" s="164"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="21"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="21"/>
+      <c r="B66" s="164"/>
+      <c r="C66" s="164"/>
+      <c r="D66" s="164"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="21"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="21"/>
+      <c r="B67" s="164"/>
+      <c r="C67" s="164"/>
+      <c r="D67" s="164"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="21"/>
+    </row>
+    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="48" t="s">
+        <v>37</v>
+      </c>
+      <c r="D68" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="E68" s="49"/>
+      <c r="F68" s="46"/>
+    </row>
+    <row r="69" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="51">
+        <v>23.75</v>
+      </c>
+      <c r="D69" s="52">
+        <v>350</v>
+      </c>
+      <c r="E69" s="49"/>
+      <c r="F69" s="46"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="21"/>
+      <c r="B70" s="164"/>
+      <c r="C70" s="164"/>
+      <c r="D70" s="164"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="21"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="21"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="21"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="21"/>
+      <c r="B72" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="29">
+        <f>D69*C69</f>
+        <v>8312.5</v>
+      </c>
+      <c r="F72" s="21"/>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="21"/>
+      <c r="B73" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="30">
+        <v>0</v>
+      </c>
+      <c r="F73" s="21"/>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="21"/>
+      <c r="B74" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="30">
+        <v>0</v>
+      </c>
+      <c r="F74" s="21"/>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="21"/>
+      <c r="B75" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="29">
+        <f>SUM(E72:E74)</f>
+        <v>8312.5</v>
+      </c>
+      <c r="F75" s="21"/>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="21"/>
+      <c r="B76" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" s="31">
+        <v>0.05</v>
+      </c>
+      <c r="D76" s="26"/>
+      <c r="E76" s="35">
+        <f>ROUND(E75*C76,2)</f>
+        <v>415.63</v>
+      </c>
+      <c r="F76" s="21"/>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="21"/>
+      <c r="B77" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="42">
+        <v>9.9750000000000005E-2</v>
+      </c>
+      <c r="D77" s="26"/>
+      <c r="E77" s="43">
+        <f>ROUND(E75*C77,2)</f>
+        <v>829.17</v>
+      </c>
+      <c r="F77" s="21"/>
+    </row>
+    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="21"/>
+      <c r="B78" s="26"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="21"/>
+    </row>
+    <row r="79" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="21"/>
+      <c r="B79" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="33">
+        <f>SUM(E75:E77)</f>
+        <v>9557.2999999999993</v>
+      </c>
+      <c r="F79" s="21"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="21"/>
+      <c r="B80" s="166"/>
+      <c r="C80" s="166"/>
+      <c r="D80" s="166"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="21"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A81" s="21"/>
+      <c r="B81" s="171" t="s">
+        <v>18</v>
+      </c>
+      <c r="C81" s="171"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="36">
+        <v>0</v>
+      </c>
+      <c r="F81" s="21"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A82" s="21"/>
+      <c r="B82" s="166"/>
+      <c r="C82" s="166"/>
+      <c r="D82" s="166"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="21"/>
+    </row>
+    <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="21"/>
+      <c r="B83" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="38"/>
+      <c r="D83" s="38"/>
+      <c r="E83" s="39">
+        <f>E79-E81</f>
+        <v>9557.2999999999993</v>
+      </c>
+      <c r="F83" s="21"/>
+    </row>
+    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="21"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="21"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="21"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="21"/>
+      <c r="B85" s="21"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="21"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="21"/>
+      <c r="B86" s="169"/>
+      <c r="C86" s="169"/>
+      <c r="D86" s="169"/>
+      <c r="E86" s="169"/>
+      <c r="F86" s="21"/>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A87" s="163" t="s">
+        <v>29</v>
+      </c>
+      <c r="B87" s="163"/>
+      <c r="C87" s="163"/>
+      <c r="D87" s="163"/>
+      <c r="E87" s="163"/>
+      <c r="F87" s="163"/>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A88" s="172" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="172"/>
+      <c r="C88" s="172"/>
+      <c r="D88" s="172"/>
+      <c r="E88" s="172"/>
+      <c r="F88" s="172"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="21"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="21"/>
+      <c r="F89" s="21"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="21"/>
+      <c r="B90" s="170"/>
+      <c r="C90" s="170"/>
+      <c r="D90" s="170"/>
+      <c r="E90" s="170"/>
+      <c r="F90" s="21"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A91" s="162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="162"/>
+      <c r="C91" s="162"/>
+      <c r="D91" s="162"/>
+      <c r="E91" s="162"/>
+      <c r="F91" s="162"/>
+    </row>
+    <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B93" s="167"/>
+      <c r="C93" s="168"/>
+      <c r="D93" s="168"/>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -6779,791 +8509,6 @@
     <mergeCell ref="B93:D93"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{5057C1A9-191C-459D-8FE9-547B78B580AD}">
-      <formula1>Liste_Activités</formula1>
-    </dataValidation>
-  </dataValidations>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="131" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <headerFooter scaleWithDoc="0" alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FD72DD7-CC4D-41A0-B7AC-A996819BD9F0}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A12:F95"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:D70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="5.140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="3"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="3"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="3"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="3"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B17" s="3"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B18" s="3"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" s="3"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="17"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="17"/>
-      <c r="B25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="20"/>
-    </row>
-    <row r="30" spans="1:6" s="40" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="168"/>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-    </row>
-    <row r="32" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A33" s="21"/>
-      <c r="B33" s="165"/>
-      <c r="C33" s="165"/>
-      <c r="D33" s="165"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A34" s="21"/>
-      <c r="B34" s="165" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="165"/>
-      <c r="D34" s="165"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A35" s="21"/>
-      <c r="B35" s="165"/>
-      <c r="C35" s="165"/>
-      <c r="D35" s="165"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A36" s="21"/>
-      <c r="B36" s="165" t="s">
-        <v>100</v>
-      </c>
-      <c r="C36" s="165"/>
-      <c r="D36" s="165"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="21"/>
-      <c r="B37" s="165"/>
-      <c r="C37" s="165"/>
-      <c r="D37" s="165"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="21"/>
-      <c r="B38" s="165" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="165"/>
-      <c r="D38" s="165"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="21"/>
-      <c r="B39" s="165"/>
-      <c r="C39" s="165"/>
-      <c r="D39" s="165"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="21"/>
-      <c r="B40" s="165" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" s="165"/>
-      <c r="D40" s="165"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="21"/>
-      <c r="B41" s="165"/>
-      <c r="C41" s="165"/>
-      <c r="D41" s="165"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="21"/>
-      <c r="B42" s="165" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="165"/>
-      <c r="D42" s="165"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="165"/>
-      <c r="C43" s="165"/>
-      <c r="D43" s="165"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="21"/>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
-      <c r="D44" s="165"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="21"/>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
-      <c r="D45" s="165"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="21"/>
-      <c r="B46" s="165"/>
-      <c r="C46" s="165"/>
-      <c r="D46" s="165"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="21"/>
-      <c r="B47" s="165"/>
-      <c r="C47" s="165"/>
-      <c r="D47" s="165"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="21"/>
-      <c r="B48" s="165"/>
-      <c r="C48" s="165"/>
-      <c r="D48" s="165"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="21"/>
-      <c r="B49" s="165"/>
-      <c r="C49" s="165"/>
-      <c r="D49" s="165"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A50" s="21"/>
-      <c r="B50" s="165"/>
-      <c r="C50" s="165"/>
-      <c r="D50" s="165"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A51" s="21"/>
-      <c r="B51" s="165"/>
-      <c r="C51" s="165"/>
-      <c r="D51" s="165"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A52" s="21"/>
-      <c r="B52" s="165"/>
-      <c r="C52" s="165"/>
-      <c r="D52" s="165"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A53" s="21"/>
-      <c r="B53" s="165"/>
-      <c r="C53" s="165"/>
-      <c r="D53" s="165"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="21"/>
-      <c r="B54" s="165"/>
-      <c r="C54" s="165"/>
-      <c r="D54" s="165"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="21"/>
-      <c r="B55" s="165"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="21"/>
-      <c r="B56" s="165"/>
-      <c r="C56" s="165"/>
-      <c r="D56" s="165"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="21"/>
-      <c r="B57" s="165"/>
-      <c r="C57" s="165"/>
-      <c r="D57" s="165"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="21"/>
-      <c r="B58" s="165"/>
-      <c r="C58" s="165"/>
-      <c r="D58" s="165"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="21"/>
-      <c r="B59" s="165"/>
-      <c r="C59" s="165"/>
-      <c r="D59" s="165"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="21"/>
-    </row>
-    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="21"/>
-      <c r="B60" s="165"/>
-      <c r="C60" s="165"/>
-      <c r="D60" s="165"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="21"/>
-    </row>
-    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A61" s="21"/>
-      <c r="B61" s="165"/>
-      <c r="C61" s="165"/>
-      <c r="D61" s="165"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="21"/>
-    </row>
-    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A62" s="21"/>
-      <c r="B62" s="165"/>
-      <c r="C62" s="165"/>
-      <c r="D62" s="165"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="21"/>
-    </row>
-    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="21"/>
-      <c r="B63" s="165"/>
-      <c r="C63" s="165"/>
-      <c r="D63" s="165"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="21"/>
-      <c r="B64" s="165"/>
-      <c r="C64" s="165"/>
-      <c r="D64" s="165"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="21"/>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="21"/>
-      <c r="B65" s="165"/>
-      <c r="C65" s="165"/>
-      <c r="D65" s="165"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="21"/>
-    </row>
-    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A66" s="21"/>
-      <c r="B66" s="165"/>
-      <c r="C66" s="165"/>
-      <c r="D66" s="165"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="21"/>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A67" s="21"/>
-      <c r="B67" s="165"/>
-      <c r="C67" s="165"/>
-      <c r="D67" s="165"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="21"/>
-    </row>
-    <row r="68" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="46"/>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48" t="s">
-        <v>37</v>
-      </c>
-      <c r="D68" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="49"/>
-      <c r="F68" s="46"/>
-    </row>
-    <row r="69" spans="1:6" s="50" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="46"/>
-      <c r="B69" s="47"/>
-      <c r="C69" s="51">
-        <v>23.75</v>
-      </c>
-      <c r="D69" s="52">
-        <v>350</v>
-      </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="46"/>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="21"/>
-      <c r="B70" s="165"/>
-      <c r="C70" s="165"/>
-      <c r="D70" s="165"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="21"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="21"/>
-      <c r="B71" s="165"/>
-      <c r="C71" s="165"/>
-      <c r="D71" s="165"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="21"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="21"/>
-      <c r="B72" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="29">
-        <f>D69*C69</f>
-        <v>8312.5</v>
-      </c>
-      <c r="F72" s="21"/>
-    </row>
-    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="21"/>
-      <c r="B73" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="30">
-        <v>0</v>
-      </c>
-      <c r="F73" s="21"/>
-    </row>
-    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="21"/>
-      <c r="B74" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="30">
-        <v>0</v>
-      </c>
-      <c r="F74" s="21"/>
-    </row>
-    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="21"/>
-      <c r="B75" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75" s="26"/>
-      <c r="D75" s="26"/>
-      <c r="E75" s="29">
-        <f>SUM(E72:E74)</f>
-        <v>8312.5</v>
-      </c>
-      <c r="F75" s="21"/>
-    </row>
-    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="21"/>
-      <c r="B76" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="31">
-        <v>0.05</v>
-      </c>
-      <c r="D76" s="26"/>
-      <c r="E76" s="35">
-        <f>ROUND(E75*C76,2)</f>
-        <v>415.63</v>
-      </c>
-      <c r="F76" s="21"/>
-    </row>
-    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="21"/>
-      <c r="B77" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C77" s="42">
-        <v>9.9750000000000005E-2</v>
-      </c>
-      <c r="D77" s="26"/>
-      <c r="E77" s="43">
-        <f>ROUND(E75*C77,2)</f>
-        <v>829.17</v>
-      </c>
-      <c r="F77" s="21"/>
-    </row>
-    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="21"/>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="32"/>
-      <c r="F78" s="21"/>
-    </row>
-    <row r="79" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26"/>
-      <c r="E79" s="33">
-        <f>SUM(E75:E77)</f>
-        <v>9557.2999999999993</v>
-      </c>
-      <c r="F79" s="21"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="21"/>
-      <c r="B80" s="169"/>
-      <c r="C80" s="169"/>
-      <c r="D80" s="169"/>
-      <c r="E80" s="36"/>
-      <c r="F80" s="21"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A81" s="21"/>
-      <c r="B81" s="166" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="166"/>
-      <c r="D81" s="166"/>
-      <c r="E81" s="36">
-        <v>0</v>
-      </c>
-      <c r="F81" s="21"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="21"/>
-      <c r="B82" s="169"/>
-      <c r="C82" s="169"/>
-      <c r="D82" s="169"/>
-      <c r="E82" s="36"/>
-      <c r="F82" s="21"/>
-    </row>
-    <row r="83" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="21"/>
-      <c r="B83" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="39">
-        <f>E79-E81</f>
-        <v>9557.2999999999993</v>
-      </c>
-      <c r="F83" s="21"/>
-    </row>
-    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="21"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="21"/>
-      <c r="F84" s="21"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="21"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="21"/>
-      <c r="F85" s="21"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="21"/>
-      <c r="B86" s="163"/>
-      <c r="C86" s="163"/>
-      <c r="D86" s="163"/>
-      <c r="E86" s="163"/>
-      <c r="F86" s="21"/>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A87" s="171" t="s">
-        <v>29</v>
-      </c>
-      <c r="B87" s="171"/>
-      <c r="C87" s="171"/>
-      <c r="D87" s="171"/>
-      <c r="E87" s="171"/>
-      <c r="F87" s="171"/>
-    </row>
-    <row r="88" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A88" s="167" t="s">
-        <v>30</v>
-      </c>
-      <c r="B88" s="167"/>
-      <c r="C88" s="167"/>
-      <c r="D88" s="167"/>
-      <c r="E88" s="167"/>
-      <c r="F88" s="167"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="21"/>
-      <c r="F89" s="21"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="21"/>
-      <c r="B90" s="164"/>
-      <c r="C90" s="164"/>
-      <c r="D90" s="164"/>
-      <c r="E90" s="164"/>
-      <c r="F90" s="21"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="170" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="170"/>
-      <c r="C91" s="170"/>
-      <c r="D91" s="170"/>
-      <c r="E91" s="170"/>
-      <c r="F91" s="170"/>
-    </row>
-    <row r="93" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="161"/>
-      <c r="C93" s="162"/>
-      <c r="D93" s="162"/>
-    </row>
-    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="A87:F87"/>
-    <mergeCell ref="A88:F88"/>
-    <mergeCell ref="B90:E90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="B93:D93"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B63:D63"/>
-    <mergeCell ref="B64:D64"/>
-    <mergeCell ref="B65:D65"/>
-    <mergeCell ref="B66:D66"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="B80:D80"/>
-    <mergeCell ref="B81:D81"/>
-    <mergeCell ref="B82:D82"/>
-    <mergeCell ref="B61:D61"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B52:D52"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="B57:D57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-  </mergeCells>
-  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B82 B12:B20 B33:B71" xr:uid="{F33BCA02-C133-4942-920F-660677FF5144}">
       <formula1>Liste_Activités</formula1>
     </dataValidation>
@@ -7597,10 +8542,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="22.5" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="172"/>
+      <c r="C1" s="173"/>
       <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -8233,13 +9178,13 @@
       <c r="F29" s="70"/>
     </row>
     <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="175" t="s">
+      <c r="A30" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="175"/>
-      <c r="C30" s="175"/>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
       <c r="F30" s="71"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -8714,10 +9659,10 @@
     </row>
     <row r="81" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="176" t="s">
+      <c r="B81" s="177" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="177"/>
+      <c r="C81" s="178"/>
       <c r="D81" s="126"/>
       <c r="E81" s="127">
         <v>20781.73</v>
@@ -8734,30 +9679,30 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="180"/>
-      <c r="E83" s="180"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="181"/>
+      <c r="E83" s="181"/>
       <c r="F83" s="131"/>
     </row>
     <row r="84" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="182"/>
-      <c r="E84" s="182"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="183"/>
+      <c r="E84" s="183"/>
       <c r="F84" s="54"/>
     </row>
     <row r="85" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="184"/>
-      <c r="E85" s="184"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="185"/>
+      <c r="E85" s="185"/>
       <c r="F85" s="50"/>
     </row>
     <row r="86" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
@@ -8777,21 +9722,21 @@
       <c r="F87" s="50"/>
     </row>
     <row r="88" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="170" t="s">
+      <c r="A88" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="170"/>
-      <c r="C88" s="170"/>
-      <c r="D88" s="170"/>
-      <c r="E88" s="170"/>
-      <c r="F88" s="170"/>
+      <c r="B88" s="162"/>
+      <c r="C88" s="162"/>
+      <c r="D88" s="162"/>
+      <c r="E88" s="162"/>
+      <c r="F88" s="162"/>
     </row>
     <row r="89" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A89" s="62"/>
-      <c r="B89" s="173"/>
-      <c r="C89" s="173"/>
-      <c r="D89" s="174"/>
-      <c r="E89" s="174"/>
+      <c r="B89" s="174"/>
+      <c r="C89" s="174"/>
+      <c r="D89" s="175"/>
+      <c r="E89" s="175"/>
       <c r="F89" s="50"/>
     </row>
   </sheetData>
@@ -9085,13 +10030,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -9556,10 +10501,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="187" t="s">
+      <c r="B81" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="188"/>
+      <c r="C81" s="189"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
         <v>2012.06</v>
@@ -9576,30 +10521,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="160"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -9619,14 +10564,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="185" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="185"/>
-      <c r="C88" s="185"/>
-      <c r="D88" s="185"/>
-      <c r="E88" s="185"/>
-      <c r="F88" s="185"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9912,13 +10857,13 @@
       <c r="F29" s="138"/>
     </row>
     <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186" t="s">
+      <c r="A30" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="186"/>
-      <c r="C30" s="186"/>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
+      <c r="B30" s="187"/>
+      <c r="C30" s="187"/>
+      <c r="D30" s="187"/>
+      <c r="E30" s="187"/>
       <c r="F30" s="139"/>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -10395,10 +11340,10 @@
     </row>
     <row r="81" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="62"/>
-      <c r="B81" s="187" t="s">
+      <c r="B81" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="C81" s="188"/>
+      <c r="C81" s="189"/>
       <c r="D81" s="158"/>
       <c r="E81" s="159">
         <v>12417.3</v>
@@ -10415,30 +11360,30 @@
     </row>
     <row r="83" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="130"/>
-      <c r="B83" s="178"/>
-      <c r="C83" s="179"/>
-      <c r="D83" s="179"/>
-      <c r="E83" s="179"/>
+      <c r="B83" s="179"/>
+      <c r="C83" s="180"/>
+      <c r="D83" s="180"/>
+      <c r="E83" s="180"/>
       <c r="F83" s="160"/>
     </row>
     <row r="84" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="181" t="s">
+      <c r="A84" s="182" t="s">
         <v>29</v>
       </c>
-      <c r="B84" s="181"/>
-      <c r="C84" s="181"/>
-      <c r="D84" s="181"/>
-      <c r="E84" s="181"/>
+      <c r="B84" s="182"/>
+      <c r="C84" s="182"/>
+      <c r="D84" s="182"/>
+      <c r="E84" s="182"/>
       <c r="F84" s="115"/>
     </row>
     <row r="85" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="183" t="s">
+      <c r="A85" s="184" t="s">
         <v>30</v>
       </c>
-      <c r="B85" s="183"/>
-      <c r="C85" s="183"/>
-      <c r="D85" s="183"/>
-      <c r="E85" s="183"/>
+      <c r="B85" s="184"/>
+      <c r="C85" s="184"/>
+      <c r="D85" s="184"/>
+      <c r="E85" s="184"/>
       <c r="F85" s="46"/>
     </row>
     <row r="86" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -10458,14 +11403,14 @@
       <c r="F87" s="46"/>
     </row>
     <row r="88" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="185" t="s">
+      <c r="A88" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="B88" s="185"/>
-      <c r="C88" s="185"/>
-      <c r="D88" s="185"/>
-      <c r="E88" s="185"/>
-      <c r="F88" s="185"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="6">
